--- a/500all/speech_level/speeches_CHRG-114hhrg25101.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg25101.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="208">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>412436</t>
   </si>
   <si>
-    <t>Dan Benishek</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Benishek. Before we begin, I would like to ask unanimous consent for Congressman Doug Lamborn from Colorado and Congressman Bill Posey from Florida to sit on the dais and participate in today's hearing. So without objection, so ordered.    Good morning. Thank you all for joining us for today's Subcommittee hearing on Choice Consolidation: Improving the VA Community Care Billing and Reimbursement.    This morning's hearing is the second in the series of hearings the Subcommittee is holding over the next several weeks on several aspects of VA's plan to consolidate community care programs under a new and improved Choice Program.    Last week, we met to discuss eligibility for community care under the consolidation plan. This morning, we are going to discuss billing and reimbursement being considered under the plan.    The importance of VA's effort to consolidate community care programs and the impact that consolidation will have on the future of VA's health care system cannot be overstated. The VA simply cannot offer veteran patients across the country the health care they need without using community providers to supplement the care provided in the VA medical facilities. That is a fact that is becoming increasingly obvious and increasingly expensive.    In fiscal year 2012, the VA spent $4.5 billion on care in the community. Four years later in fiscal year 2015, care in the community costs more than doubled to just over $10 billion. That is almost an unprecedented increase over a relatively short time period and there is no sign that upward trend will reverse itself any time soon with the budget submission that was released Tuesday estimating a need for $12 billion for community care in fiscal year 2017.    In order for that money to be well spent and for our veterans to be well served by it, the VA must be a willing, fair, and consistent partner with community providers around the country. Unfortunately, the overly bureaucratic, highly manual claims process that VA currently employs to reimburse community providers does meet that standard.    Despite aggressive oversight from this Subcommittee and by individual Members of Congress, community providers both large and small continue to report millions of dollars in past due unpaid claims, and my office continues to hear regularly from providers who would like to serve veterans, but they are hesitant to continue accepting referrals from the VA because it is so difficult for them to get paid for their services.    My office also hears a lot of confusion and frustration from community providers about what they are supposed to be getting paid in the first place. Reimbursement rates vary widely across the VA's multiple care in the community programs.    In some cases, the VA reimbursement rates are lower than Medicare which makes it difficult for community providers to accept veteran patients and keep their doors open. In other cases, VA reimbursement rates are higher than Medicare. This is an inefficient way to run a large hospital, much less the Nation's largest health care system.    So moving forward, the VA must automate and simplify the department's community care claims processing system so that community providers are reimbursed accurately and in a timely, transparent manner.    VA must also honor the important role that community providers play in treating veteran patients by developing standardized reimbursement rates that are fair, competitive, and consistently applied. Multiple bureaucratic steps that only time rather than value must be eliminated. The stakes are simply too high for the VA to do anything less.    Thank you again for being here and I will now yield to Mr. Takano for his opening statement. Thank you.</t>
   </si>
   <si>
     <t>412520</t>
   </si>
   <si>
-    <t>Mark Takano</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Takano. Thank you, Mr. Chairman, for calling this hearing on VA's future plan to improve billing and reimbursement practices so that providers in the community can expect prompt, accurate payments for services rendered to veterans in a community setting.    We are all aware of the challenges that face the department in this area. Numerous VA Inspector Generals' Reports, Government Accountability Office reports, and the recently released independent assessment all outline several problems that VA should and needs to address in order to ensure that proper billing and reimbursement practices are put in place and adhered to.    The department is first and foremost a health care provider, not an insurer of care. Congress saw the need to address the wait time crisis that surfaced in 2014. The Veterans Choice Program was authorized as a temporary program to address that issue. Congress has now required VA to consolidate their numerous purchased care programs under one umbrella in order to become more efficient and less confusing for veterans, employees, and providers.    The new Veterans Choice Program offered by VA in the care consolidation plan is designed to do just that. Now that the wait time crisis has subsided, it is important to ensure the VA continues its mission of providing health care to our Nation's veterans.    It is important we remember that VA was built to provide unique medical services to veterans who suffer from combat-related injuries and illnesses. We know veterans feel that they get the best care at the VA. It is our job to make sure that the VA has the resources it needs to provide medical care services veterans need.    We know the current claims infrastructure and claims processes are complex and inefficient due to highly manual procedures. VA lacks a centralized data repository to support auto adjudication.    According to VA, there are more than 70 centers processing claims across 30 different claims systems. VA's system is a labor intensive, paper-based process that results in late and sometimes incorrect payments.    The Government Accountability Office reports that VA's expenditures for its care in the community programs, veterans for whom VA has purchased care, and the number of claims processed by the Veterans Health Administration have grown considerably in recent years.    In fiscal year 2015, VA obligated about $10.1 billion for its care in the community programs for about 1.5 million veterans. This is compared to fiscal year 2012 when VA spent about $4.5 billion on care in the community programs for about 983,000 veterans, about 50 percent less.    The most startling statistic is that the number of processed claims for VA care in the community programs increased by 81 percent. Given this increase and the state of VA's information technology infrastructure, we potentially have a long, expensive road ahead of us. It will be no small task to fix this problem, and we must work together to get this right.    Mr. Chairman, I am interested to hear from the department in more detail on how they plan to implement improvements, how much it will cost, and what they will need from us legislatively or otherwise in order for the plan to succeed.    I agree with The American Legion that a strong, robust veterans' health care system that is designed to treat the unique needs of those men and women who have served our country is what we need. Getting there in a timely manner remains to be seen.    I look forward to hearing from all the witnesses today, and I look forward in the coming days to bring the best quality care to all of our veterans. Thank you and I yield back my time.</t>
   </si>
   <si>
@@ -73,27 +67,18 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Williamson</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Williamson. Good morning, Chairman Benishek and Members of the Subcommittee. I am pleased to be here today to discuss our preliminary findings on VHA's efforts to improve the timeliness of its payments to non-VA providers when veterans access care in the community.    The number of processed claims from community providers has almost doubled since 2012 and this sharp increase has overwhelmed the staff at some VHA claims processing centers in terms of their ability to process claims in a timely way.    In fiscal year 2015, VHA paid less than 70 percent of its claims from community providers within 30 days. In contrast, TRICARE and Medicare paid about 99 percent of their claims within 30 days.    To make matters worse, VHA data overstates their timeliness because paper claims which represent about 60 percent of the claims they get are not always promptly scanned into VHA's claims processing system. Until this is done, the 30-day clock VHA uses to measure processing time doesn't start to tick.    At one VHA claims processing center we visited, for example, we observed about a dozen bins of paper claims and medical documentation awaiting scanning, some of which were received a month before our visit.    Community providers who participated in our study were frustrated with VHA for requiring providers to submit claims and medical documentation multiple times, paying medical claims late, and being unresponsive to repeated attempts by providers to contact VHA and resolve payment issues.    If these timeliness and poor customer service issues persist, VHA will risk losing the cooperation and participation of community providers as it attempts to transition to a future care delivery system that would heavily rely on them to deliver care to veterans.    To its credit, VHA has recently taken steps to improve claims processing timeliness such as hiring more claims processing staff to replace those lost through attrition and establishing productivity standards for them. However, VHA acknowledges that its current claims processing system is not sustainable and longer-term solutions are needed including revamping archaic information technology systems.    At the behest of the Congress, VHA is in the process of consolidating its various purchased care programs into a single program called the new Veterans Choice Program. To do so, VA has developed a broad consolidation plan which it presented to the Congress late last year to develop a robust network of community providers and streamline clinical and administrative processes.    According to VA, implementing this plan will allow it to put into a place a much improved claims processing system. As well-intentioned as VA might be, bringing this community care consolidation plan to fruition will require a herculean effort on many fronts.    The sweeping changes VA is planning will likely be costly, and will require major organizational and structural changes and modernization of its IT systems. Achieving the objectives laid out in the plan will require strong leadership, careful and thoughtful planning, effective project management, and transparency and involvement with multiple stakeholders including the Congress.    The absence of these elements can have severe consequences. Our prior work has shown that some of VA's past attempts to achieve goals of similar magnitude have been derailed by poor planning, project management weaknesses, and insufficient oversight.    VA's past failures to modernize its systems for outpatient appointment scheduling, financial management, and inventory and asset management are stark reminders of what can happen if mega projects of this scale are mismanaged. These projects were canceled after investments of hundreds of millions of dollars leaving VA with little to show for its efforts.    To date, we have not seen a detailed blueprint and specific strategies for how VHA plans to successfully implement the major components of its consolidation plan, especially as it relates to the claims processing system.    Such a blueprint should include an analysis of available options, estimates costs, staff resources and new systems needed, specific timelines and a critical path for achieving its objectives and key milestones, performance measures to gauge success and hold managers accountable, and a process to ensure transparency among major stakeholders.    That concludes my opening remarks.    [The prepared statement of Randall B. Williamson appears in the Appendix]</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Benishek. Thank you very much.    Mr. Abe, could you please go ahead, five minutes.</t>
   </si>
   <si>
-    <t>Abe</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Abe. Mr. Chairman and Members of the Subcommittee, thank you for the opportunity to discuss the Office of Inspector General's work concerning VA's purchased care programs.    I am accompanied by Mr. Larry Reinkemeyer, the Director of our Kansas City Audit Division.    VA's purchased care programs are critical to VA in carrying out its mission of providing medical care to our veterans. Our audits and other reviews have reported the challenges VA faces in authorizing, scheduling, and ensuring contractors provide medical records in support of services provided.    It has been challenging to conduct effective oversight of VA's purchased care programs because VA continues to make significant changes and additions to the programs. For example, we published four reports on PC3 in fiscal year 2015 that reviewed the effectiveness of PC3 in providing timely access to care.    We had planned to review the timeliness and accuracy of PC3 payments this fiscal year after providing VA sufficient time to process a significant number of claims to make reliable findings and conclusions. However, PC3 was soon followed by the Veterans Choice Program.    Nevertheless, we have started a quarterly review of paid Choice claims in order to meet the Choice Act requirement to submit a report on the timeliness and accuracy of payment of claims after 75 percent of the almost $10 billion of program funds are spent or when the program ends in August 2017.    This approach enables us to view the expenditure activity over time and helps assess whether VA's payment process is improving or worsening.    In September 2013, VA awarded Health Net and TriWest PC3 contracts. In October 2014, VA amended the PC3 contracts to include administration of the Veterans Choice Program. This is an important matter when evaluating VA's plan to align all non-VA care programs under the new Veterans Choice Program.    Since Health Net and TriWest have built their Choice provider network upon the backbone of the PC3 network, there are lessons that can be learned from the series of reports we issued in fiscal year 2015 addressing aspects of VA's implementation efforts.    All four PC3 reports identify issues with inadequate processes for submitting timely authorizations, scheduling appointments, returning the medical document for continuity of care, and the provider network that lacks sufficient numbers and mixes of health care providers in the geographic locations where veterans needed them.    Being a retired Army officer, I decided to seek care under the Veterans Choice Program. This was my first experience with VA health care. In July 2015, I visited my VA primary care provider and he ordered medical services that were not available timely from VA. For the first month, I was told I was not eligible for the Choice Program. Then in late August, I was told I was authorized for care and I would be notified of my appointment in three to five days. Months passed without a word.    On December 14th, I received a letter from Health Net saying that they had scheduled an appointment with a local provider. However, the appointment was for December 12th, two days earlier. This is what VA considers blind scheduling. So I was a no show on Health Net's records.    I called the Veterans Choice call center and I asked if I could call the provider to avoid another blind scheduled appointment. They said yes. I called the local provider and scheduled an appointment on December 29th, about 165 days or five and a half months after my visit with my primary care provider in July.    My experience is similar to the issues we identified in our PC3 and recent Veterans Choice reports. The obstacles I experienced are also similar to those that many veterans are calling in to our hotline and most likely your local congressional offices.    The complaints fall into the following general categories: program eligibility enrollment; the authorization process; appointments and scheduling; and veteran provider payments.    In conclusion, our recent work has shown that VA faces challenges in administrating its purchased care programs. While purchasing health care services may afford VA flexibility in terms of expanded access to care and services that are not readily available at VA medical facilities, it also poses a significant risk to VA, and more importantly, a great deal of frustration and risk to our veterans' health when adequate controls are not in place.    Without adequate controls, VA's consolidation plan is at an increased risk of not achieving its goal of delivering timely and efficient health care to our veterans.    Mr. Chairman, this concludes my statement. We would be happy to answer any questions you or the Members of the Subcommittee may have.    [The prepared statement of Gary K. Abe appears in the Appendix]</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Benishek. Thank you very much, Mr. Abe. I appreciate you including your personal experience.    Dr. Yehia, you are recognized.</t>
   </si>
   <si>
-    <t>Yehia</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. Yehia. Thank you.    Good morning Chairman Benishek and Members of the Subcommittee. Thank you for the opportunity to testify today regarding the department's plan to consolidate community care programs, specifically on our efforts to improve billing and reimbursement.    I am accompanied today by Gene Migliaccio who is our Deputy Chief Business Officer for Purchased Care.    And I would like to take a moment, and look forward to the discussions from some of the other panelists and their experiences, and be able to talk a little bit about some of the improvements we are doing to address those.    To start, community providers are critical to VA's ability to deliver timely and quality care to veterans. As a clinician, I personally understand the importance of these partnerships and often jointly care for veterans with community providers.    To strengthen and grow these important relationships, VA recognizes a need to pay claims accurately and timely. For many providers, late payments have a major impact on the practice, and may cause some not to care for our veterans. We know this is unacceptable, and it is particularly problematic in rural areas where the number of providers is limited. Late payments may also negatively impact our veterans by creating unnecessary financial hardships. That is why in our plan to consolidate community care programs, we are keenly focused on improving how we interact with community providers including payment.    I want to provide the Subcommittee with an update on our progress since the June 3rd hearing related to claims processing and prompt payment.    In the last eight months, we have focused our efforts on improving people, process, and technology. So first, related to people, we filled 220 vacancies in 57 days and that is 33 days faster than our 90-day goal. We also provided and implemented productivity and quality standards.    Second related to process, we have implemented real-time monitoring of claims to ensure that the oldest claims are paid first, and we are actively removing any unnecessary steps that may be barriers to paying timely claims.    Third related to technology, we continue to try to automate steps where we can and, for example, we removed the duplicate claims process and now that is automated.    These efforts have produced results. As of today, 81 percent of authorized claims, meaning our current, meaning they are within 30 days of receipt. This compares to 73 percent in June of last year.    Some sites have improved more than others. So, for example, in Louisiana, claims processing has improved from 69 percent to 96 percent in the last six months. This improvement is even more noteworthy given the fact that we continue to experience tremendous growth in the claims volume.    Last fiscal year, we processed roughly 17 million claims which represents a 21 increase from the prior year. Even though we continue to improve in this area, there is still much work to be done to meet industry expectations.    We also recognize that our Choice contractors have not been paid timely and understand the frustration this has caused. We are actively working to address these issues with an eye towards removing any barriers in the contract that may slow payment.    I believe that open communication is critical for these partnerships to work, and have made it a point to meet weekly with the executives from Health Net and TriWest to talk about issues that we are discussing today. Getting these partnerships right is important for VA, and impacts our relationship with community providers and the veterans that we serve.    We are taking steps to improve community care today, but also looking towards the future incorporating lessons learned from the current program and industry best practice. We aim to move towards a claims solution that is more fully automated. That is why in the recently released draft performance work statement, we include a specific section focused on claims processing and payment.    Lastly, we take the recommendations from GAO and OIG seriously. We are closely monitoring their reports and working to resolve issues that are identified. However, we do need help from Congress to formalize VA's prompt pay standard which will help us align with current industry practice, and then also help from Congress to change the recording of obligations to the time of payment so that we can improve our accuracy in terms of funding.    These two proposals will address many of the deficiencies identified in both GAO and OIG reports. Getting provider payment is critically important. We look forward to continuing to work with veterans, veteran service organizations, yourself, and Congress as well as we move forward.    I appreciate the opportunity to appear before you today, and am prepared to answer any questions you or other Members may have. Thank you.    [The prepared statement of Baligh Yehia appears in the Appendix]</t>
   </si>
   <si>
@@ -139,9 +124,6 @@
     <t xml:space="preserve">    Mr. Takano. Okay. I don't know who can answer this question, but where do third-party administrators fit into the new Veterans Choice Program? Are you going to create your own high-performing network in-house or how will the VA communicate with veterans using care in the community for their health care?</t>
   </si>
   <si>
-    <t>Migliaccio</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Migliaccio. Sir, I will take that question. The work we have been doing over the past since we were here in June of last year talking about prompt pay and the hard work that we put together in terms of the plan that we delivered to Congress at the end of October, we have also stood up as a part of the plan, something we call an integrated project team to focus on the future state.    Looking at our patient-centered community care contract that we call PC3, we are looking for a follow-on contract. So what we are looking at in that contract is to look at high-performing networks, a claims solution, and other areas that we can support purchasing care in the community for our veterans.    And I just want to give you a couple of examples, and we have been working at really a brisk, fast pace. We stood up this group a number of months back. In December, we had met with industry for an industry day. We presented our preliminary request for information, met with over 80 individuals representing 30 major health care entities in the country.    From our meeting with industry, we developed, as Dr. Yehia had mentioned, a draft performance work statement that was released just a few weeks ago that will form and shape a draft request for proposal. We will come back to industry very very soon after, and then put a formalized request for proposal out in the next two months.</t>
   </si>
   <si>
@@ -172,9 +154,6 @@
     <t>412310</t>
   </si>
   <si>
-    <t>David P. Roe</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Roe. Thank you, Mr. Chairman.    First of all, I applaud VA for consolidating these six programs that are different. That makes it very, very hard to administer. There is no question. We have got different rules.    Let me sort of lay out where I think falling short has hurt the VA like Mr. Abe in trying to get care. I have said this a hundred times if I have said it once in this hearing. I have made hundreds or thousands of appointments for people. It ain't that hard to do. And Mr. Abe could pick the phone up and call his primary care doctor and make an appointment in five minutes. I can do that right now while we are waiting. It is not hard.    We made it incredibly complicated and he had to wait almost six months to get an appointment with a doctor that he needed to see that his primary care doctor decided.    The other thing that the VA has done that has really hurt--in a group like my size, if we don't get paid promptly, we have enough cash reserves to survive that. If you are in a small one or two or three person practice, you cannot.    And when the payments have been cut with Medicare down to really very low levels, when you have an ACA out there that has created an out-of-pocket expense that most people can't afford, three or four thousand dollars out of pocket, they can't pay the doctor.    And then the VA decides not to pay the doctor. You are out of business. And that is why they don't want to see, and even the reimbursement levels. Most of us, many of us are veterans, some are not, you almost never talk to a provider who doesn't want to take care of a veteran. I mean, they just want to do it for a lot of noble reasons.    So my question, I want to start out is why didn't the VA just use a system like the Medicare is doing? They paid us promptly, quickly. I filed a lot of claims last year during my wife's illness. Blue Cross and Blue Shield, they figured it out. They paid the hospital and the doctors very very promptly. What is the big deal? Why can't you just do that?</t>
   </si>
   <si>
@@ -211,18 +190,12 @@
     <t xml:space="preserve">    Mr. Roe. My time is about up. Let me--</t>
   </si>
   <si>
-    <t>Roe [continued]</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Roe [continued]. --just tell you the real-world implications of that. Okay? I have a friend of mine who retired from his dental practice because there is always not enough dentists at a VA. He sees just VA patients. That very thing has happened where he works, so he doesn't get paid.    So he is going to have to close his dental practice because of what you guys are doing to pay claims somewhere else. And that means that veterans in a facility close to where I live are not going to get dental care.    I yield back my time.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Benishek. Mr. O'Rourke, you are up.</t>
   </si>
   <si>
-    <t>O'Rourke</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. O'Rourke. Thank you, Mr. Chairman.    Dr. Yehia, thank you for helping us better understand the plan and the proposal.    And I want to begin by saying, when Dr. Shulkin, you, and the team first announced this in October, it was very encouraging and I was very excited by the vision that you all outlined for the VA. It was comprehensive. It made sense of leveraging community capacity. And what I read into it was having the VA better focus on what I think its core priorities should be.    But given the skepticism well earned by the VA that I hear from Mr. Williamson and Mr. Abe, and in Mr. Abe's case from his personal experience included, given the fact that you have ten and a half months left, given the scope of these changes, and then again to bring up what I think is the most critical urgent priority, reducing veterans' suicide, and the crisis that we have there, that really will take concentrated focus for us to make a meaningful impact, what of this lift could you offload to someone else either in the public or private sector?    So to follow-up on Dr. Roe's question, if CMS has a 99 percent under 30-day pay rate, I know there are obstacles, and I know these are different animals, but is there a way to bust through that and contract this with CMS who seems to have figured this out, and has a lot of experience doing it right, or at least better than the VA? Is there some other part of the billing reimbursement validation process that could be outsourced to a private provider who does this really, really well and we could set these benchmarks and standards?    So that will be my first question. The second one, a shorter one, can we get a copy of the draft performance work statement that you keep referring to? So my two questions for you.</t>
   </si>
   <si>
@@ -268,9 +241,6 @@
     <t>412271</t>
   </si>
   <si>
-    <t>Mike Coffman</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Coffman. Thank you, Mr. Chairman.    Well, whoever would like to answer this. I have heard time and time again from ambulance companies that VA misapplies a prudent layperson standard for emergency transportation.    For example, VA has been requiring ambulance providers to wait for underlying emergency care claims to be processed, and to provide medical documentation from the veterans' emergency room visit prior to processing the transportation claims. Although VA insists this isn't required, clearly the practice continues throughout the country, and veterans are often left with the bill.    What is needed to correct the prudent layperson standard in the case of emergency ambulatory care? Who can answer that question? Yes.</t>
   </si>
   <si>
@@ -280,9 +250,6 @@
     <t xml:space="preserve">    Mr. Coffman. Okay. Last Saturday, I spoke at a convention for ophthalmologists. There were about 400 in Colorado. Well, last Sunday. And there were some VA personnel in there as well, docs as well. And everybody seemed to uniformly complain about Health Net--</t>
   </si>
   <si>
-    <t>Coffman [continued]</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Coffman [continued]. --and just how impossible it was to get paid. Is that the case throughout the country, or is this something endemic to Colorado?</t>
   </si>
   <si>
@@ -316,9 +283,6 @@
     <t>412519</t>
   </si>
   <si>
-    <t>Raul Ruiz</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Ruiz. Thank you, Mr. Chairman.    The damage veterans suffer due to the VA's current billing and reimbursement system is irreparable and unacceptable. A decorated Vietnam combat veteran from my district attempted to pursue care in the community for orthopedic issues and pain management. After navigating the complex and burdensome process of receiving care within his community, he was diagnosed with soft pallet complications that would require surgery before other issues could be addressed.    As he learned to treat and manage his neck and back injuries, he also learned that the VA refused to pay his medical bills in a timely manner. This delayed payment meant that the patient couldn't just concentrate on improving his health, he had to spend time worrying about his credit as the clinic, and later collections agencies hounded him for payment of his medical bills.    Now this veteran has damaged health and damaged credit due to the VA. The VA is meant to serve veterans, but it is clear in this instance that they did the exact opposite. They added a bad credit to a veteran who is barely making ends meet. This was a grave disservice to him, one of our Nation's heroes.    So we talked about how the complicated system affects physicians and physicians' ability to provide that care, but how does your team plan, and this is to Dr. Yehia, how do you and your team plan to prevent this from happening in the future?</t>
   </si>
   <si>
@@ -337,9 +301,6 @@
     <t xml:space="preserve">    Dr. Yehia. Because they are not--</t>
   </si>
   <si>
-    <t>Ruiz [continued]</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Ruiz [continued]. --as Dr. Roe said are hurting.</t>
   </si>
   <si>
@@ -385,9 +346,6 @@
     <t>412564</t>
   </si>
   <si>
-    <t>Brad R. Wenstrup</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Wenstrup. Thank you, Mr. Chairman.    If I can just add to that, I would hope that we don't have to keep adding layers upon layers because layer one isn't being done. Now you have layer two of writing letters saying, hey, it is not this guy's fault. I mean, thank you for doing that, but that is not the answer obviously.    My next question is, what does the individual, the patient, the veteran do, and what does the physician do when these claims aren't getting paid? Is there a customer service branch that they can reach and have the same person to talk to when they call about the claim either from the doctor's office or on behalf of the veteran or are they just--because I have been getting reports that every time they call, it is somebody different and they have to start all over and wondering where this is taking place?</t>
   </si>
   <si>
@@ -415,9 +373,6 @@
     <t>412429</t>
   </si>
   <si>
-    <t>Tim Huelskamp</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Huelskamp. Thank you, Mr. Chairman. I will try to arrive at that time again in the future. This is pretty quick. And I apologize for being late. There was another Subcommittee hearing. And if I repeat some questions, hopefully it still provides some insight.    But yesterday, I visited with, I do not remember whatever deputy under secretary it was, said that we were going to see some changes, and paying before a paper claim would be required, and some changes there. Doctor, can you describe that a little bit more? It was a short part of the discussion in my questions yesterday.</t>
   </si>
   <si>
@@ -490,9 +445,6 @@
     <t xml:space="preserve">    Mr. Huelskamp. Oh my.</t>
   </si>
   <si>
-    <t>Migliaccio [continued]</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Migliaccio [continued]. --innovative physicians, you know, kept a number of lines going so they could continue their questions about their claims status. Well after our hearing in June, we went back and we stopped that practice because it did not make any sense.</t>
   </si>
   <si>
@@ -514,9 +466,6 @@
     <t xml:space="preserve">    Mr. Benishek. Mr. Lamborn?</t>
   </si>
   <si>
-    <t>Lamborn</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Lamborn. Thank you, Mr. Chairman, and thanks for having this hearing. I am sure you were probably watching the discussion we had with Secretary McDonald yesterday. And one thing that I was, and continue to be very upset and concerned about, is the recent Inspector General's report on the problems in Colorado Springs. And whether we call it falsifying or just bad training and poor recordkeeping, there were people on the wait list who went way beyond 30 days. And yet the records did not reflect that. And it was not an honest recordkeeping. It was not a proper recordkeeping. And part of the problem is also veterans who are eligible for the Choice program, which we are here today to talk about, were not put on that list of eligible veterans. And that was a big problem and continues to be.    Now the claim is that these have all been fixed in Colorado Springs. I think the jury is still out on that because we are still hearing reports of people falling through the cracks. And that simply should not be happening. In particular, and I know that you already discussed this today. And I apologize. I was at other meetings up until now, so I do not want to, sorry if I am covering old ground, but we have people, providers in the community, who are not being reimbursed on a timely basis. And I know this is anecdotal. But we have one provider in particular who has had to stop seeing veterans because he has not been paid for six months. Now how in this day and age, even if we are using fax machines, how can this be happening?</t>
   </si>
   <si>
@@ -541,9 +490,6 @@
     <t xml:space="preserve">    Mr. Benishek. Mr. Posey, you are recognized.</t>
   </si>
   <si>
-    <t>Posey</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Posey. Thank you very much, Mr. Chairman. And thank you so much for letting me participate in your Committee today. Doctor Yehia, I hate to be redundant, but my concerns are very similar to those expressed by virtually every other Member of the Subcommittee. In my congressional district, we are already losing doctors because they have had such a bureaucratic nightmare trying to get paid. The physician's billing department is being told that it is something they did wrong, even when they make the required changes. It is as much as five months time. And from what I have heard, my guys are lucky it is only taking them five months to get paid.    Can you tell me what is being done to shorten the time between billing and payment? And what I mean by that is, besides just saying this is what we are doing, can you tell me where it has been enacted? Or have you got rules that have changed that?</t>
   </si>
   <si>
@@ -595,18 +541,12 @@
     <t xml:space="preserve">    Mr. Benishek. The panel is now excused. Thank you very much.    Joining us on our second panel is Roscoe G. Butler, the Deputy Director of the National Veterans Affairs and Rehabilitation Division of the American Legion; and Carlos Fuentes, the Senior Legislative Associate for the Veterans of Foreign Wars. I appreciate you coming today, gentlemen. And Mr. Butler, you can begin when you are ready. Thank you.</t>
   </si>
   <si>
-    <t>Butler</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Butler. Thank you. The American Legion is committed to a strong, robust veterans health care system designed to treat the unique needs of those who have worn the uniform. However, even in the best of circumstances, there are situations where the system cannot meet the needs of the veteran and the veteran must seek care in the community.    Chairman Benishek and Members of the Subcommittee on Health, I am privileged to be here today and to speak on behalf of The American Legion, our National Commander Dale Barnett, and more than two million members in over 14,000 posts across the country that make up the backbone of the Nation's largest wartime veterans service organization.    The VA purchased care program dates back to 1945 when VA's Hometown Program was created. Since then, VA has implemented a number of programs in order to manage veterans health care when such care is not available in a VA health care facility, could not be provided in a timely manner, or is more cost effective, programs such as Fee Basis, Project Arch, PC3.    Most recently in 2014, the Veterans Choice Program was enacted so that more veterans could be referred outside the VA for needed health care services. However it quickly became apparent that layering yet another program on top of the numerous existing non-VA care programs each with their own unique set of requirements resulted in a complex and confusing landscape for veterans and community providers as well as the VA employees that serve and support them. Therefore Congress passed legislation in July of 2015 that required VA to develop a plan to consolidate existing community care programs, which VA delivered on October 30th, 2015.    Generally, the American Legion supports the plan to consolidate VA's multiple purchased care programs into one new Veterans Community Program. We believe it has the potential to improve and expand veterans' access to health care. Most depend on how VA will work with its employees, Congress, VSOs, private providers, academic affiliates, and other stakeholders as they move forward in developing and implementing the plan.    As noted in the plan, the current system is a decentralized and highly manual process. The new VCP plan proposes integrating most of VA's Community Care Program into one single program that would be seamless, transparent, and beneficial to enrolled veterans. VA states its new VCP will focus on operational efficiencies to include standardized billing and reimbursement as well as geographically adjusted fee schedules that are tied to Medicare and deemed appropriate.    These efforts would make it easier and more appealing for community health care providers to partner with VA. The American Legion strongly believes VA must standardize its reimbursement rates, but not set the rates too low where providers would be discouraged from signing up as participating providers in the new VCP, such as providers in Alaska and other rural areas.    In November 2015, we received an inquiry from a veteran requesting assistance with payment of a medical bill that was authorized under the current Veterans Community Care Program. The veteran explained that he was approved to be treated by a non-VA health care provider for a hernia surgery to be performed outside the VA. After the care was provided, VA payment was delayed for months which resulted in the claim being referred to an attorney's office for collection. As a result, the veteran expressed disbelief and has lost faith in the VA system.This should never happen, but occurs more often than it should.    The American Legion supports VA developing a 21st Century claims and reimbursement process that is rules-based, and to the extent, possible eliminates as much human intervention as possible. Therefore, we are pleased to see that VA proposes to implement a claims solution which is able to auto-adjudicate a high percentage of claims, enabling VA to pay community health care providers promptly and correctly, and to move to a standardized reasonable fee schedule to the extent practicable for consistency in reimbursement.    However, we do not believe Congress should continue to provide VA an open checkbook without any assurance from VA that the plan will work. Much as further funding for the joint electronic record is contingent on providing benchmarks are met, Congress can and should require progress benchmarks here.    In conclusion, VA plans for the new Veterans Choice Program need Congress' approval. The American Legion believes the VA plan is a reasonable one given that desired result. VA has identified a number of necessary legislative items that require action by Congress in the short legislative window available this year in order to best serve veterans going forward in 2016. The American Legion supports many of those, such as measures budget flexibility, the Purchased Healthcare Streamlining and Modernization Act, flexibility for the Federal work period requirement, and special pay authority to help VA recruit and retain the best talent possible to lead their hospitals and health care networks.    The American Legion believes that together, we can accomplish these legislative changes before the end of this session of Congress. We cannot let another year slip away. Our veterans deserve the same sense of urgency now that Congress has shown numerous times since the VA scandal first erupted in 2014.    The American Legion thanks this Committee for their diligence and commitment to our veterans, and as they struggle to access health care across the country. And I am happy to answer any questions.    [The prepared statement of Roscoe G. Butler appears in the Appendix]</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Benishek. Thank you, Mr. Butler. Mr. Fuentes, five minutes.</t>
   </si>
   <si>
-    <t>Fuentes</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Fuentes. Mr. Chairman, Members of the Subcommittee, on behalf of the VFW and our Auxiliary, I would like to thank you for the opportunity to present our views on VA's plan to consolidate community care programs.    The brave men and women who have worn our Nation's uniform have earned and deserve timely access to high quality, comprehensive, and veteran-centric health care. That is why the VFW has made a concerted effort to evaluate the VA health care system and has worked with VA, Congress, and other stakeholders to implement reasonable solutions to issues we have identified.    In the past year, we have collected and evaluated direct feedback from more than 12,000 veterans. Through this work, we have identified several concerns with the Choice program. Given the focus of today's hearing, I would limit my remarks to billing issues we have identified.    The most common billing complaint we hear from veterans who use the Choice program is that they have been improperly billed for their community care appointments. This typically occurs when a veteran is authorized to use the Choice program, but requires follow-up care that is outside of the scope of the original authorization. This is where the program often fails veterans. At times, a veteran arrives to a follow-up appointment before the care is authorized, so the veteran is either required to reschedule the appointment or assume the responsibility for the cost of that care. Most veterans reschedule that appointment and are forced to wait longer for the care they need.    In some instances, a veteran arrives at the appointment and is unaware the care is not authorized. If the veteran's provider is also unaware of the authorization status, or fails to inform the veteran, the veteran may be billed for the cost of that care. For example, a veteran in Saginaw, Michigan was authorized to use the Choice program for a vision exam. The provider prescribed him a specific treatment to save his vision. Since the provider was unable to administer that treatment, he was referred to a clinic nearby, where he received four courses of that treatment before being told that VA refused to pay his bill, and that he would need to pay his outstanding balance before he could continue to be seen. The VFW worked with Health Net to ensure that that veteran could continue his treatment while we figured out a way to pay for his bill. Since his treatment at the clinic was beyond the scope of the original authorization, Health Net did not have the ability to retroactively authorize the veteran's care. Luckily, we were able to work with VA to have his bill paid, but it should not require our involvement to resolve this issue. That is why the VFW urges Congress and VA to empower local VA community care staff and the program's contractors to make common sense exemptions to the Choice program requirements to prevent veterans from being needlessly billed for care VA is required to furnish.    The VFW also believes that it is time to fully integrate community care providers into the veterans health care delivery model to ensure veterans have timely access to high quality comprehensive veteran-centric health care without having to cut through bureaucratic red tape.    The VFW has also learned that providers at times are responsible for improper payments or billing. The Choice program requires that payment be contingent on providers providing the medical documentation. Private sector providers are not accustomed to reporting medical documentation before receiving payment. As a result, some of them will bill the veteran before sending VA or the program's contractors the requisite medical records. To address this issue, VA has proposed decoupling medical documentation and payments. We are concerned that decoupling medical records and payments would remove the incentive of community care providers to share medical records with VA which could impact VA's ability to verify the quality of care veterans receive. Ultimately, we will hold VA accountable for providing high quality care to veterans, regardless if it is at a VA medical facility or through community care providers. In order to ensure that quality, VA needs that medical documentation.    The VFW believes that this issue can be addressed without decoupling medical documentation. For example, VA could develop IT solutions to facilitate a seamless integration of the health care records between medical facilities and their community care partners. This would prevent community providers from having to PDF or fax medical records to VA, and ensure that VA can verify the quality of care veterans receive.    As this Committee continues to evaluate VA's plan to consolidate community care programs, the VFW will continue to ensure veterans' preferences and health care needs are prioritized. Mr. Chairman, this concludes my remarks and I am ready to answer any questions you may have.    [The prepared statement of Carlos Fuentes appears in the Appendix]</t>
   </si>
   <si>
@@ -623,9 +563,6 @@
   </si>
   <si>
     <t xml:space="preserve">    Mr. Benishek. Right.</t>
-  </si>
-  <si>
-    <t>Fuentes [continued]</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Fuentes [continued]. --guarantee that care.</t>
@@ -1099,11 +1036,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1123,13 +1058,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1151,11 +1084,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1175,13 +1106,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1203,11 +1132,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1227,13 +1154,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1255,11 +1180,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1279,13 +1202,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1307,11 +1228,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1331,13 +1250,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1359,11 +1276,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1383,13 +1298,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" t="s"/>
+      <c r="H13" t="s">
         <v>25</v>
-      </c>
-      <c r="H13" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1411,11 +1324,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1435,13 +1346,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1463,11 +1372,9 @@
       <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1487,13 +1394,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1515,11 +1420,9 @@
       <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1539,13 +1442,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1567,11 +1468,9 @@
       <c r="F20" t="s">
         <v>11</v>
       </c>
-      <c r="G20" t="s">
-        <v>12</v>
-      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1591,13 +1490,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>14</v>
-      </c>
-      <c r="G21" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1617,13 +1514,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>18</v>
-      </c>
-      <c r="G22" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1643,13 +1538,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1669,13 +1562,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>18</v>
-      </c>
-      <c r="G24" t="s">
-        <v>41</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1695,13 +1586,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>14</v>
-      </c>
-      <c r="G25" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1721,13 +1610,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>18</v>
-      </c>
-      <c r="G26" t="s">
-        <v>41</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1747,13 +1634,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>14</v>
-      </c>
-      <c r="G27" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1773,13 +1658,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>18</v>
-      </c>
-      <c r="G28" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1799,13 +1682,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>14</v>
-      </c>
-      <c r="G29" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1825,13 +1706,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>18</v>
-      </c>
-      <c r="G30" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1851,13 +1730,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>14</v>
-      </c>
-      <c r="G31" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1879,11 +1756,9 @@
       <c r="F32" t="s">
         <v>11</v>
       </c>
-      <c r="G32" t="s">
-        <v>12</v>
-      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1903,13 +1778,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>51</v>
-      </c>
-      <c r="G33" t="s">
-        <v>52</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1929,13 +1802,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>18</v>
-      </c>
-      <c r="G34" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1955,13 +1826,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>51</v>
-      </c>
-      <c r="G35" t="s">
-        <v>52</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1981,13 +1850,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>18</v>
-      </c>
-      <c r="G36" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2007,13 +1874,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>51</v>
-      </c>
-      <c r="G37" t="s">
-        <v>52</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2033,13 +1898,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>18</v>
-      </c>
-      <c r="G38" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2059,13 +1922,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>51</v>
-      </c>
-      <c r="G39" t="s">
+        <v>45</v>
+      </c>
+      <c r="G39" t="s"/>
+      <c r="H39" t="s">
         <v>52</v>
-      </c>
-      <c r="H39" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2085,13 +1946,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>18</v>
-      </c>
-      <c r="G40" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2111,13 +1970,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>51</v>
-      </c>
-      <c r="G41" t="s">
-        <v>52</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2137,13 +1994,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>18</v>
-      </c>
-      <c r="G42" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2163,13 +2018,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>51</v>
-      </c>
-      <c r="G43" t="s">
-        <v>52</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2189,13 +2042,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>18</v>
-      </c>
-      <c r="G44" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2215,13 +2066,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>51</v>
-      </c>
-      <c r="G45" t="s">
-        <v>52</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2241,13 +2090,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>18</v>
-      </c>
-      <c r="G46" t="s">
+        <v>16</v>
+      </c>
+      <c r="G46" t="s"/>
+      <c r="H46" t="s">
         <v>25</v>
-      </c>
-      <c r="H46" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2267,13 +2114,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>18</v>
-      </c>
-      <c r="G47" t="s">
-        <v>65</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2295,11 +2140,9 @@
       <c r="F48" t="s">
         <v>11</v>
       </c>
-      <c r="G48" t="s">
-        <v>12</v>
-      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2319,13 +2162,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>18</v>
-      </c>
-      <c r="G49" t="s">
-        <v>68</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2345,13 +2186,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>18</v>
-      </c>
-      <c r="G50" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2371,13 +2210,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>18</v>
-      </c>
-      <c r="G51" t="s">
-        <v>68</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2397,13 +2234,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>18</v>
-      </c>
-      <c r="G52" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2423,13 +2258,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>18</v>
-      </c>
-      <c r="G53" t="s">
-        <v>68</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2449,13 +2282,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>18</v>
-      </c>
-      <c r="G54" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2475,13 +2306,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>18</v>
-      </c>
-      <c r="G55" t="s">
-        <v>68</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2501,13 +2330,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>18</v>
-      </c>
-      <c r="G56" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2527,13 +2354,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>18</v>
-      </c>
-      <c r="G57" t="s">
+        <v>16</v>
+      </c>
+      <c r="G57" t="s"/>
+      <c r="H57" t="s">
         <v>68</v>
-      </c>
-      <c r="H57" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2553,13 +2378,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>18</v>
-      </c>
-      <c r="G58" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2579,13 +2402,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>18</v>
-      </c>
-      <c r="G59" t="s">
-        <v>68</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2605,13 +2426,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>18</v>
-      </c>
-      <c r="G60" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2631,13 +2450,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>18</v>
-      </c>
-      <c r="G61" t="s">
-        <v>68</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2659,11 +2476,9 @@
       <c r="F62" t="s">
         <v>11</v>
       </c>
-      <c r="G62" t="s">
-        <v>12</v>
-      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2683,13 +2498,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>83</v>
-      </c>
-      <c r="G63" t="s">
-        <v>84</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2709,13 +2522,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>18</v>
-      </c>
-      <c r="G64" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2735,13 +2546,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>83</v>
-      </c>
-      <c r="G65" t="s">
-        <v>84</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2761,13 +2570,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>18</v>
-      </c>
-      <c r="G66" t="s">
+        <v>16</v>
+      </c>
+      <c r="G66" t="s"/>
+      <c r="H66" t="s">
         <v>25</v>
-      </c>
-      <c r="H66" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2787,13 +2594,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>18</v>
-      </c>
-      <c r="G67" t="s">
-        <v>88</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2813,13 +2618,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>18</v>
-      </c>
-      <c r="G68" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2839,13 +2642,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>83</v>
-      </c>
-      <c r="G69" t="s">
-        <v>84</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2865,13 +2666,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>18</v>
-      </c>
-      <c r="G70" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2891,13 +2690,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>83</v>
-      </c>
-      <c r="G71" t="s">
-        <v>84</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2917,13 +2714,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>18</v>
-      </c>
-      <c r="G72" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2943,13 +2738,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>83</v>
-      </c>
-      <c r="G73" t="s">
+        <v>74</v>
+      </c>
+      <c r="G73" t="s"/>
+      <c r="H73" t="s">
         <v>84</v>
-      </c>
-      <c r="H73" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2969,13 +2762,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>18</v>
-      </c>
-      <c r="G74" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2995,13 +2786,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>83</v>
-      </c>
-      <c r="G75" t="s">
-        <v>84</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3023,11 +2812,9 @@
       <c r="F76" t="s">
         <v>11</v>
       </c>
-      <c r="G76" t="s">
-        <v>12</v>
-      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3047,13 +2834,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>99</v>
-      </c>
-      <c r="G77" t="s">
-        <v>100</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3073,13 +2858,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>18</v>
-      </c>
-      <c r="G78" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3099,13 +2882,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>99</v>
-      </c>
-      <c r="G79" t="s">
-        <v>100</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3125,13 +2906,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>18</v>
-      </c>
-      <c r="G80" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3151,13 +2930,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>99</v>
-      </c>
-      <c r="G81" t="s">
-        <v>100</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3177,13 +2954,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>18</v>
-      </c>
-      <c r="G82" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3203,13 +2978,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>18</v>
-      </c>
-      <c r="G83" t="s">
-        <v>107</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3229,13 +3002,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>18</v>
-      </c>
-      <c r="G84" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3255,13 +3026,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>99</v>
-      </c>
-      <c r="G85" t="s">
-        <v>100</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3281,13 +3050,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>18</v>
-      </c>
-      <c r="G86" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3307,13 +3074,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>99</v>
-      </c>
-      <c r="G87" t="s">
-        <v>100</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3333,13 +3098,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>18</v>
-      </c>
-      <c r="G88" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3359,13 +3122,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>18</v>
-      </c>
-      <c r="G89" t="s">
-        <v>107</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3385,13 +3146,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>18</v>
-      </c>
-      <c r="G90" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3411,13 +3170,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>99</v>
-      </c>
-      <c r="G91" t="s">
+        <v>88</v>
+      </c>
+      <c r="G91" t="s"/>
+      <c r="H91" t="s">
         <v>100</v>
-      </c>
-      <c r="H91" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3437,13 +3194,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>18</v>
-      </c>
-      <c r="G92" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3463,13 +3218,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>99</v>
-      </c>
-      <c r="G93" t="s">
-        <v>100</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3489,13 +3242,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>18</v>
-      </c>
-      <c r="G94" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3515,13 +3266,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>18</v>
-      </c>
-      <c r="G95" t="s">
-        <v>41</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3541,13 +3290,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>99</v>
-      </c>
-      <c r="G96" t="s">
-        <v>100</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3567,13 +3314,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>18</v>
-      </c>
-      <c r="G97" t="s">
-        <v>41</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3593,13 +3338,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>99</v>
-      </c>
-      <c r="G98" t="s">
-        <v>100</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3621,11 +3364,9 @@
       <c r="F99" t="s">
         <v>11</v>
       </c>
-      <c r="G99" t="s">
-        <v>12</v>
-      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3645,13 +3386,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>122</v>
-      </c>
-      <c r="G100" t="s">
-        <v>123</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3671,13 +3410,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>18</v>
-      </c>
-      <c r="G101" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3697,13 +3434,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>122</v>
-      </c>
-      <c r="G102" t="s">
-        <v>123</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3723,13 +3458,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>18</v>
-      </c>
-      <c r="G103" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3749,13 +3482,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>122</v>
-      </c>
-      <c r="G104" t="s">
-        <v>123</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3775,13 +3506,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>18</v>
-      </c>
-      <c r="G105" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3801,13 +3530,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>122</v>
-      </c>
-      <c r="G106" t="s">
-        <v>123</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3829,11 +3556,9 @@
       <c r="F107" t="s">
         <v>11</v>
       </c>
-      <c r="G107" t="s">
-        <v>12</v>
-      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3853,13 +3578,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>132</v>
-      </c>
-      <c r="G108" t="s">
-        <v>133</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3879,13 +3602,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>18</v>
-      </c>
-      <c r="G109" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3905,13 +3626,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>132</v>
-      </c>
-      <c r="G110" t="s">
-        <v>133</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3931,13 +3650,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>18</v>
-      </c>
-      <c r="G111" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3957,13 +3674,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>132</v>
-      </c>
-      <c r="G112" t="s">
-        <v>133</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3983,13 +3698,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>18</v>
-      </c>
-      <c r="G113" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -4009,13 +3722,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>132</v>
-      </c>
-      <c r="G114" t="s">
-        <v>133</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4035,13 +3746,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>18</v>
-      </c>
-      <c r="G115" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4061,13 +3770,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>132</v>
-      </c>
-      <c r="G116" t="s">
-        <v>133</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4087,13 +3794,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>18</v>
-      </c>
-      <c r="G117" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4113,13 +3818,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>132</v>
-      </c>
-      <c r="G118" t="s">
-        <v>133</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4139,13 +3842,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>18</v>
-      </c>
-      <c r="G119" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4165,13 +3866,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>132</v>
-      </c>
-      <c r="G120" t="s">
-        <v>133</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4191,13 +3890,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>18</v>
-      </c>
-      <c r="G121" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4217,13 +3914,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>132</v>
-      </c>
-      <c r="G122" t="s">
+        <v>118</v>
+      </c>
+      <c r="G122" t="s"/>
+      <c r="H122" t="s">
         <v>133</v>
-      </c>
-      <c r="H122" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4243,13 +3938,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>18</v>
-      </c>
-      <c r="G123" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4269,13 +3962,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>132</v>
-      </c>
-      <c r="G124" t="s">
-        <v>133</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4295,13 +3986,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>18</v>
-      </c>
-      <c r="G125" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4321,13 +4010,11 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>132</v>
-      </c>
-      <c r="G126" t="s">
-        <v>133</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4347,13 +4034,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>18</v>
-      </c>
-      <c r="G127" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4373,13 +4058,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>18</v>
-      </c>
-      <c r="G128" t="s">
-        <v>41</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4399,13 +4082,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>132</v>
-      </c>
-      <c r="G129" t="s">
-        <v>133</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4425,13 +4106,11 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>18</v>
-      </c>
-      <c r="G130" t="s">
-        <v>41</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4451,13 +4130,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>132</v>
-      </c>
-      <c r="G131" t="s">
-        <v>133</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4477,13 +4154,11 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>18</v>
-      </c>
-      <c r="G132" t="s">
-        <v>158</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4503,13 +4178,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>132</v>
-      </c>
-      <c r="G133" t="s">
-        <v>133</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4529,13 +4202,11 @@
         <v>10</v>
       </c>
       <c r="F134" t="s">
-        <v>18</v>
-      </c>
-      <c r="G134" t="s">
-        <v>41</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4555,13 +4226,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>132</v>
-      </c>
-      <c r="G135" t="s">
-        <v>133</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4583,11 +4252,9 @@
       <c r="F136" t="s">
         <v>11</v>
       </c>
-      <c r="G136" t="s">
-        <v>12</v>
-      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4607,13 +4274,11 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>132</v>
-      </c>
-      <c r="G137" t="s">
-        <v>133</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4635,11 +4300,9 @@
       <c r="F138" t="s">
         <v>11</v>
       </c>
-      <c r="G138" t="s">
-        <v>12</v>
-      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4659,13 +4322,11 @@
         <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>18</v>
-      </c>
-      <c r="G139" t="s">
-        <v>166</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4685,13 +4346,11 @@
         <v>10</v>
       </c>
       <c r="F140" t="s">
-        <v>18</v>
-      </c>
-      <c r="G140" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4711,13 +4370,11 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>18</v>
-      </c>
-      <c r="G141" t="s">
-        <v>166</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4737,13 +4394,11 @@
         <v>10</v>
       </c>
       <c r="F142" t="s">
-        <v>18</v>
-      </c>
-      <c r="G142" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4763,13 +4418,11 @@
         <v>10</v>
       </c>
       <c r="F143" t="s">
-        <v>18</v>
-      </c>
-      <c r="G143" t="s">
-        <v>166</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4789,13 +4442,11 @@
         <v>10</v>
       </c>
       <c r="F144" t="s">
-        <v>18</v>
-      </c>
-      <c r="G144" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4815,13 +4466,11 @@
         <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>18</v>
-      </c>
-      <c r="G145" t="s">
-        <v>166</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4843,11 +4492,9 @@
       <c r="F146" t="s">
         <v>11</v>
       </c>
-      <c r="G146" t="s">
-        <v>12</v>
-      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4867,13 +4514,11 @@
         <v>10</v>
       </c>
       <c r="F147" t="s">
-        <v>18</v>
-      </c>
-      <c r="G147" t="s">
-        <v>175</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4893,13 +4538,11 @@
         <v>10</v>
       </c>
       <c r="F148" t="s">
-        <v>18</v>
-      </c>
-      <c r="G148" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4919,13 +4562,11 @@
         <v>10</v>
       </c>
       <c r="F149" t="s">
-        <v>18</v>
-      </c>
-      <c r="G149" t="s">
-        <v>175</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4945,13 +4586,11 @@
         <v>10</v>
       </c>
       <c r="F150" t="s">
-        <v>18</v>
-      </c>
-      <c r="G150" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4971,13 +4610,11 @@
         <v>10</v>
       </c>
       <c r="F151" t="s">
-        <v>18</v>
-      </c>
-      <c r="G151" t="s">
-        <v>41</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4997,13 +4634,11 @@
         <v>10</v>
       </c>
       <c r="F152" t="s">
-        <v>18</v>
-      </c>
-      <c r="G152" t="s">
-        <v>175</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -5023,13 +4658,11 @@
         <v>10</v>
       </c>
       <c r="F153" t="s">
-        <v>18</v>
-      </c>
-      <c r="G153" t="s">
-        <v>41</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -5049,13 +4682,11 @@
         <v>10</v>
       </c>
       <c r="F154" t="s">
-        <v>18</v>
-      </c>
-      <c r="G154" t="s">
-        <v>175</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5075,13 +4706,11 @@
         <v>10</v>
       </c>
       <c r="F155" t="s">
-        <v>18</v>
-      </c>
-      <c r="G155" t="s">
-        <v>41</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G155" t="s"/>
       <c r="H155" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5101,13 +4730,11 @@
         <v>10</v>
       </c>
       <c r="F156" t="s">
-        <v>18</v>
-      </c>
-      <c r="G156" t="s">
-        <v>175</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G156" t="s"/>
       <c r="H156" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5127,13 +4754,11 @@
         <v>10</v>
       </c>
       <c r="F157" t="s">
-        <v>18</v>
-      </c>
-      <c r="G157" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G157" t="s"/>
       <c r="H157" t="s">
-        <v>186</v>
+        <v>168</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5153,13 +4778,11 @@
         <v>10</v>
       </c>
       <c r="F158" t="s">
-        <v>18</v>
-      </c>
-      <c r="G158" t="s">
-        <v>175</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G158" t="s"/>
       <c r="H158" t="s">
-        <v>187</v>
+        <v>169</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5179,13 +4802,11 @@
         <v>10</v>
       </c>
       <c r="F159" t="s">
-        <v>18</v>
-      </c>
-      <c r="G159" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G159" t="s"/>
       <c r="H159" t="s">
-        <v>188</v>
+        <v>170</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5205,13 +4826,11 @@
         <v>10</v>
       </c>
       <c r="F160" t="s">
-        <v>18</v>
-      </c>
-      <c r="G160" t="s">
-        <v>175</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G160" t="s"/>
       <c r="H160" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5233,11 +4852,9 @@
       <c r="F161" t="s">
         <v>11</v>
       </c>
-      <c r="G161" t="s">
-        <v>12</v>
-      </c>
+      <c r="G161" t="s"/>
       <c r="H161" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5257,13 +4874,11 @@
         <v>10</v>
       </c>
       <c r="F162" t="s">
-        <v>14</v>
-      </c>
-      <c r="G162" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G162" t="s"/>
       <c r="H162" t="s">
-        <v>191</v>
+        <v>173</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5285,11 +4900,9 @@
       <c r="F163" t="s">
         <v>11</v>
       </c>
-      <c r="G163" t="s">
-        <v>12</v>
-      </c>
+      <c r="G163" t="s"/>
       <c r="H163" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5309,13 +4922,11 @@
         <v>10</v>
       </c>
       <c r="F164" t="s">
-        <v>18</v>
-      </c>
-      <c r="G164" t="s">
-        <v>193</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G164" t="s"/>
       <c r="H164" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5337,11 +4948,9 @@
       <c r="F165" t="s">
         <v>11</v>
       </c>
-      <c r="G165" t="s">
-        <v>12</v>
-      </c>
+      <c r="G165" t="s"/>
       <c r="H165" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -5361,13 +4970,11 @@
         <v>10</v>
       </c>
       <c r="F166" t="s">
-        <v>18</v>
-      </c>
-      <c r="G166" t="s">
-        <v>196</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G166" t="s"/>
       <c r="H166" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5389,11 +4996,9 @@
       <c r="F167" t="s">
         <v>11</v>
       </c>
-      <c r="G167" t="s">
-        <v>12</v>
-      </c>
+      <c r="G167" t="s"/>
       <c r="H167" t="s">
-        <v>198</v>
+        <v>178</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -5413,13 +5018,11 @@
         <v>10</v>
       </c>
       <c r="F168" t="s">
-        <v>18</v>
-      </c>
-      <c r="G168" t="s">
-        <v>193</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G168" t="s"/>
       <c r="H168" t="s">
-        <v>199</v>
+        <v>179</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -5441,11 +5044,9 @@
       <c r="F169" t="s">
         <v>11</v>
       </c>
-      <c r="G169" t="s">
-        <v>12</v>
-      </c>
+      <c r="G169" t="s"/>
       <c r="H169" t="s">
-        <v>200</v>
+        <v>180</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -5465,13 +5066,11 @@
         <v>10</v>
       </c>
       <c r="F170" t="s">
-        <v>18</v>
-      </c>
-      <c r="G170" t="s">
-        <v>196</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G170" t="s"/>
       <c r="H170" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -5493,11 +5092,9 @@
       <c r="F171" t="s">
         <v>11</v>
       </c>
-      <c r="G171" t="s">
-        <v>12</v>
-      </c>
+      <c r="G171" t="s"/>
       <c r="H171" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -5517,13 +5114,11 @@
         <v>10</v>
       </c>
       <c r="F172" t="s">
-        <v>18</v>
-      </c>
-      <c r="G172" t="s">
-        <v>203</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G172" t="s"/>
       <c r="H172" t="s">
-        <v>204</v>
+        <v>183</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -5545,11 +5140,9 @@
       <c r="F173" t="s">
         <v>11</v>
       </c>
-      <c r="G173" t="s">
-        <v>12</v>
-      </c>
+      <c r="G173" t="s"/>
       <c r="H173" t="s">
-        <v>205</v>
+        <v>184</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -5569,13 +5162,11 @@
         <v>10</v>
       </c>
       <c r="F174" t="s">
-        <v>18</v>
-      </c>
-      <c r="G174" t="s">
-        <v>193</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G174" t="s"/>
       <c r="H174" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -5597,11 +5188,9 @@
       <c r="F175" t="s">
         <v>11</v>
       </c>
-      <c r="G175" t="s">
-        <v>12</v>
-      </c>
+      <c r="G175" t="s"/>
       <c r="H175" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -5621,13 +5210,11 @@
         <v>10</v>
       </c>
       <c r="F176" t="s">
-        <v>18</v>
-      </c>
-      <c r="G176" t="s">
-        <v>193</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G176" t="s"/>
       <c r="H176" t="s">
-        <v>208</v>
+        <v>187</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5649,11 +5236,9 @@
       <c r="F177" t="s">
         <v>11</v>
       </c>
-      <c r="G177" t="s">
-        <v>12</v>
-      </c>
+      <c r="G177" t="s"/>
       <c r="H177" t="s">
-        <v>209</v>
+        <v>188</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5673,13 +5258,11 @@
         <v>10</v>
       </c>
       <c r="F178" t="s">
-        <v>18</v>
-      </c>
-      <c r="G178" t="s">
-        <v>193</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G178" t="s"/>
       <c r="H178" t="s">
-        <v>210</v>
+        <v>189</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5701,11 +5284,9 @@
       <c r="F179" t="s">
         <v>11</v>
       </c>
-      <c r="G179" t="s">
-        <v>12</v>
-      </c>
+      <c r="G179" t="s"/>
       <c r="H179" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5725,13 +5306,11 @@
         <v>10</v>
       </c>
       <c r="F180" t="s">
-        <v>14</v>
-      </c>
-      <c r="G180" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G180" t="s"/>
       <c r="H180" t="s">
-        <v>212</v>
+        <v>191</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5751,13 +5330,11 @@
         <v>10</v>
       </c>
       <c r="F181" t="s">
-        <v>18</v>
-      </c>
-      <c r="G181" t="s">
-        <v>193</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G181" t="s"/>
       <c r="H181" t="s">
-        <v>213</v>
+        <v>192</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5777,13 +5354,11 @@
         <v>10</v>
       </c>
       <c r="F182" t="s">
-        <v>14</v>
-      </c>
-      <c r="G182" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G182" t="s"/>
       <c r="H182" t="s">
-        <v>214</v>
+        <v>193</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5803,13 +5378,11 @@
         <v>10</v>
       </c>
       <c r="F183" t="s">
-        <v>18</v>
-      </c>
-      <c r="G183" t="s">
-        <v>196</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G183" t="s"/>
       <c r="H183" t="s">
-        <v>215</v>
+        <v>194</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5829,13 +5402,11 @@
         <v>10</v>
       </c>
       <c r="F184" t="s">
-        <v>14</v>
-      </c>
-      <c r="G184" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G184" t="s"/>
       <c r="H184" t="s">
-        <v>216</v>
+        <v>195</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5855,13 +5426,11 @@
         <v>10</v>
       </c>
       <c r="F185" t="s">
-        <v>18</v>
-      </c>
-      <c r="G185" t="s">
+        <v>16</v>
+      </c>
+      <c r="G185" t="s"/>
+      <c r="H185" t="s">
         <v>196</v>
-      </c>
-      <c r="H185" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5881,13 +5450,11 @@
         <v>10</v>
       </c>
       <c r="F186" t="s">
-        <v>18</v>
-      </c>
-      <c r="G186" t="s">
-        <v>193</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G186" t="s"/>
       <c r="H186" t="s">
-        <v>218</v>
+        <v>197</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5907,13 +5474,11 @@
         <v>10</v>
       </c>
       <c r="F187" t="s">
-        <v>14</v>
-      </c>
-      <c r="G187" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G187" t="s"/>
       <c r="H187" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5933,13 +5498,11 @@
         <v>10</v>
       </c>
       <c r="F188" t="s">
-        <v>18</v>
-      </c>
-      <c r="G188" t="s">
-        <v>196</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G188" t="s"/>
       <c r="H188" t="s">
-        <v>220</v>
+        <v>199</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5959,13 +5522,11 @@
         <v>10</v>
       </c>
       <c r="F189" t="s">
-        <v>14</v>
-      </c>
-      <c r="G189" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G189" t="s"/>
       <c r="H189" t="s">
-        <v>221</v>
+        <v>200</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5985,13 +5546,11 @@
         <v>10</v>
       </c>
       <c r="F190" t="s">
-        <v>18</v>
-      </c>
-      <c r="G190" t="s">
-        <v>193</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G190" t="s"/>
       <c r="H190" t="s">
-        <v>222</v>
+        <v>201</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -6011,13 +5570,11 @@
         <v>10</v>
       </c>
       <c r="F191" t="s">
-        <v>14</v>
-      </c>
-      <c r="G191" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G191" t="s"/>
       <c r="H191" t="s">
-        <v>223</v>
+        <v>202</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -6039,11 +5596,9 @@
       <c r="F192" t="s">
         <v>11</v>
       </c>
-      <c r="G192" t="s">
-        <v>12</v>
-      </c>
+      <c r="G192" t="s"/>
       <c r="H192" t="s">
-        <v>224</v>
+        <v>203</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -6063,13 +5618,11 @@
         <v>10</v>
       </c>
       <c r="F193" t="s">
-        <v>51</v>
-      </c>
-      <c r="G193" t="s">
-        <v>52</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="G193" t="s"/>
       <c r="H193" t="s">
-        <v>225</v>
+        <v>204</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -6091,11 +5644,9 @@
       <c r="F194" t="s">
         <v>11</v>
       </c>
-      <c r="G194" t="s">
-        <v>12</v>
-      </c>
+      <c r="G194" t="s"/>
       <c r="H194" t="s">
-        <v>226</v>
+        <v>205</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -6115,13 +5666,11 @@
         <v>10</v>
       </c>
       <c r="F195" t="s">
-        <v>18</v>
-      </c>
-      <c r="G195" t="s">
-        <v>196</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G195" t="s"/>
       <c r="H195" t="s">
-        <v>227</v>
+        <v>206</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -6143,11 +5692,9 @@
       <c r="F196" t="s">
         <v>11</v>
       </c>
-      <c r="G196" t="s">
-        <v>12</v>
-      </c>
+      <c r="G196" t="s"/>
       <c r="H196" t="s">
-        <v>228</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg25101.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg25101.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="237">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,12 +55,24 @@
     <t>412436</t>
   </si>
   <si>
+    <t>Benishek</t>
+  </si>
+  <si>
+    <t>Dan</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Benishek. Before we begin, I would like to ask unanimous consent for Congressman Doug Lamborn from Colorado and Congressman Bill Posey from Florida to sit on the dais and participate in today's hearing. So without objection, so ordered.    Good morning. Thank you all for joining us for today's Subcommittee hearing on Choice Consolidation: Improving the VA Community Care Billing and Reimbursement.    This morning's hearing is the second in the series of hearings the Subcommittee is holding over the next several weeks on several aspects of VA's plan to consolidate community care programs under a new and improved Choice Program.    Last week, we met to discuss eligibility for community care under the consolidation plan. This morning, we are going to discuss billing and reimbursement being considered under the plan.    The importance of VA's effort to consolidate community care programs and the impact that consolidation will have on the future of VA's health care system cannot be overstated. The VA simply cannot offer veteran patients across the country the health care they need without using community providers to supplement the care provided in the VA medical facilities. That is a fact that is becoming increasingly obvious and increasingly expensive.    In fiscal year 2012, the VA spent $4.5 billion on care in the community. Four years later in fiscal year 2015, care in the community costs more than doubled to just over $10 billion. That is almost an unprecedented increase over a relatively short time period and there is no sign that upward trend will reverse itself any time soon with the budget submission that was released Tuesday estimating a need for $12 billion for community care in fiscal year 2017.    In order for that money to be well spent and for our veterans to be well served by it, the VA must be a willing, fair, and consistent partner with community providers around the country. Unfortunately, the overly bureaucratic, highly manual claims process that VA currently employs to reimburse community providers does meet that standard.    Despite aggressive oversight from this Subcommittee and by individual Members of Congress, community providers both large and small continue to report millions of dollars in past due unpaid claims, and my office continues to hear regularly from providers who would like to serve veterans, but they are hesitant to continue accepting referrals from the VA because it is so difficult for them to get paid for their services.    My office also hears a lot of confusion and frustration from community providers about what they are supposed to be getting paid in the first place. Reimbursement rates vary widely across the VA's multiple care in the community programs.    In some cases, the VA reimbursement rates are lower than Medicare which makes it difficult for community providers to accept veteran patients and keep their doors open. In other cases, VA reimbursement rates are higher than Medicare. This is an inefficient way to run a large hospital, much less the Nation's largest health care system.    So moving forward, the VA must automate and simplify the department's community care claims processing system so that community providers are reimbursed accurately and in a timely, transparent manner.    VA must also honor the important role that community providers play in treating veteran patients by developing standardized reimbursement rates that are fair, competitive, and consistently applied. Multiple bureaucratic steps that only time rather than value must be eliminated. The stakes are simply too high for the VA to do anything less.    Thank you again for being here and I will now yield to Mr. Takano for his opening statement. Thank you.</t>
   </si>
   <si>
     <t>412520</t>
   </si>
   <si>
+    <t>Takano</t>
+  </si>
+  <si>
+    <t>Mark</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Takano. Thank you, Mr. Chairman, for calling this hearing on VA's future plan to improve billing and reimbursement practices so that providers in the community can expect prompt, accurate payments for services rendered to veterans in a community setting.    We are all aware of the challenges that face the department in this area. Numerous VA Inspector Generals' Reports, Government Accountability Office reports, and the recently released independent assessment all outline several problems that VA should and needs to address in order to ensure that proper billing and reimbursement practices are put in place and adhered to.    The department is first and foremost a health care provider, not an insurer of care. Congress saw the need to address the wait time crisis that surfaced in 2014. The Veterans Choice Program was authorized as a temporary program to address that issue. Congress has now required VA to consolidate their numerous purchased care programs under one umbrella in order to become more efficient and less confusing for veterans, employees, and providers.    The new Veterans Choice Program offered by VA in the care consolidation plan is designed to do just that. Now that the wait time crisis has subsided, it is important to ensure the VA continues its mission of providing health care to our Nation's veterans.    It is important we remember that VA was built to provide unique medical services to veterans who suffer from combat-related injuries and illnesses. We know veterans feel that they get the best care at the VA. It is our job to make sure that the VA has the resources it needs to provide medical care services veterans need.    We know the current claims infrastructure and claims processes are complex and inefficient due to highly manual procedures. VA lacks a centralized data repository to support auto adjudication.    According to VA, there are more than 70 centers processing claims across 30 different claims systems. VA's system is a labor intensive, paper-based process that results in late and sometimes incorrect payments.    The Government Accountability Office reports that VA's expenditures for its care in the community programs, veterans for whom VA has purchased care, and the number of claims processed by the Veterans Health Administration have grown considerably in recent years.    In fiscal year 2015, VA obligated about $10.1 billion for its care in the community programs for about 1.5 million veterans. This is compared to fiscal year 2012 when VA spent about $4.5 billion on care in the community programs for about 983,000 veterans, about 50 percent less.    The most startling statistic is that the number of processed claims for VA care in the community programs increased by 81 percent. Given this increase and the state of VA's information technology infrastructure, we potentially have a long, expensive road ahead of us. It will be no small task to fix this problem, and we must work together to get this right.    Mr. Chairman, I am interested to hear from the department in more detail on how they plan to implement improvements, how much it will cost, and what they will need from us legislatively or otherwise in order for the plan to succeed.    I agree with The American Legion that a strong, robust veterans' health care system that is designed to treat the unique needs of those men and women who have served our country is what we need. Getting there in a timely manner remains to be seen.    I look forward to hearing from all the witnesses today, and I look forward in the coming days to bring the best quality care to all of our veterans. Thank you and I yield back my time.</t>
   </si>
   <si>
@@ -67,18 +82,27 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Williamson</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Williamson. Good morning, Chairman Benishek and Members of the Subcommittee. I am pleased to be here today to discuss our preliminary findings on VHA's efforts to improve the timeliness of its payments to non-VA providers when veterans access care in the community.    The number of processed claims from community providers has almost doubled since 2012 and this sharp increase has overwhelmed the staff at some VHA claims processing centers in terms of their ability to process claims in a timely way.    In fiscal year 2015, VHA paid less than 70 percent of its claims from community providers within 30 days. In contrast, TRICARE and Medicare paid about 99 percent of their claims within 30 days.    To make matters worse, VHA data overstates their timeliness because paper claims which represent about 60 percent of the claims they get are not always promptly scanned into VHA's claims processing system. Until this is done, the 30-day clock VHA uses to measure processing time doesn't start to tick.    At one VHA claims processing center we visited, for example, we observed about a dozen bins of paper claims and medical documentation awaiting scanning, some of which were received a month before our visit.    Community providers who participated in our study were frustrated with VHA for requiring providers to submit claims and medical documentation multiple times, paying medical claims late, and being unresponsive to repeated attempts by providers to contact VHA and resolve payment issues.    If these timeliness and poor customer service issues persist, VHA will risk losing the cooperation and participation of community providers as it attempts to transition to a future care delivery system that would heavily rely on them to deliver care to veterans.    To its credit, VHA has recently taken steps to improve claims processing timeliness such as hiring more claims processing staff to replace those lost through attrition and establishing productivity standards for them. However, VHA acknowledges that its current claims processing system is not sustainable and longer-term solutions are needed including revamping archaic information technology systems.    At the behest of the Congress, VHA is in the process of consolidating its various purchased care programs into a single program called the new Veterans Choice Program. To do so, VA has developed a broad consolidation plan which it presented to the Congress late last year to develop a robust network of community providers and streamline clinical and administrative processes.    According to VA, implementing this plan will allow it to put into a place a much improved claims processing system. As well-intentioned as VA might be, bringing this community care consolidation plan to fruition will require a herculean effort on many fronts.    The sweeping changes VA is planning will likely be costly, and will require major organizational and structural changes and modernization of its IT systems. Achieving the objectives laid out in the plan will require strong leadership, careful and thoughtful planning, effective project management, and transparency and involvement with multiple stakeholders including the Congress.    The absence of these elements can have severe consequences. Our prior work has shown that some of VA's past attempts to achieve goals of similar magnitude have been derailed by poor planning, project management weaknesses, and insufficient oversight.    VA's past failures to modernize its systems for outpatient appointment scheduling, financial management, and inventory and asset management are stark reminders of what can happen if mega projects of this scale are mismanaged. These projects were canceled after investments of hundreds of millions of dollars leaving VA with little to show for its efforts.    To date, we have not seen a detailed blueprint and specific strategies for how VHA plans to successfully implement the major components of its consolidation plan, especially as it relates to the claims processing system.    Such a blueprint should include an analysis of available options, estimates costs, staff resources and new systems needed, specific timelines and a critical path for achieving its objectives and key milestones, performance measures to gauge success and hold managers accountable, and a process to ensure transparency among major stakeholders.    That concludes my opening remarks.    [The prepared statement of Randall B. Williamson appears in the Appendix]</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Benishek. Thank you very much.    Mr. Abe, could you please go ahead, five minutes.</t>
   </si>
   <si>
+    <t>Abe</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Abe. Mr. Chairman and Members of the Subcommittee, thank you for the opportunity to discuss the Office of Inspector General's work concerning VA's purchased care programs.    I am accompanied by Mr. Larry Reinkemeyer, the Director of our Kansas City Audit Division.    VA's purchased care programs are critical to VA in carrying out its mission of providing medical care to our veterans. Our audits and other reviews have reported the challenges VA faces in authorizing, scheduling, and ensuring contractors provide medical records in support of services provided.    It has been challenging to conduct effective oversight of VA's purchased care programs because VA continues to make significant changes and additions to the programs. For example, we published four reports on PC3 in fiscal year 2015 that reviewed the effectiveness of PC3 in providing timely access to care.    We had planned to review the timeliness and accuracy of PC3 payments this fiscal year after providing VA sufficient time to process a significant number of claims to make reliable findings and conclusions. However, PC3 was soon followed by the Veterans Choice Program.    Nevertheless, we have started a quarterly review of paid Choice claims in order to meet the Choice Act requirement to submit a report on the timeliness and accuracy of payment of claims after 75 percent of the almost $10 billion of program funds are spent or when the program ends in August 2017.    This approach enables us to view the expenditure activity over time and helps assess whether VA's payment process is improving or worsening.    In September 2013, VA awarded Health Net and TriWest PC3 contracts. In October 2014, VA amended the PC3 contracts to include administration of the Veterans Choice Program. This is an important matter when evaluating VA's plan to align all non-VA care programs under the new Veterans Choice Program.    Since Health Net and TriWest have built their Choice provider network upon the backbone of the PC3 network, there are lessons that can be learned from the series of reports we issued in fiscal year 2015 addressing aspects of VA's implementation efforts.    All four PC3 reports identify issues with inadequate processes for submitting timely authorizations, scheduling appointments, returning the medical document for continuity of care, and the provider network that lacks sufficient numbers and mixes of health care providers in the geographic locations where veterans needed them.    Being a retired Army officer, I decided to seek care under the Veterans Choice Program. This was my first experience with VA health care. In July 2015, I visited my VA primary care provider and he ordered medical services that were not available timely from VA. For the first month, I was told I was not eligible for the Choice Program. Then in late August, I was told I was authorized for care and I would be notified of my appointment in three to five days. Months passed without a word.    On December 14th, I received a letter from Health Net saying that they had scheduled an appointment with a local provider. However, the appointment was for December 12th, two days earlier. This is what VA considers blind scheduling. So I was a no show on Health Net's records.    I called the Veterans Choice call center and I asked if I could call the provider to avoid another blind scheduled appointment. They said yes. I called the local provider and scheduled an appointment on December 29th, about 165 days or five and a half months after my visit with my primary care provider in July.    My experience is similar to the issues we identified in our PC3 and recent Veterans Choice reports. The obstacles I experienced are also similar to those that many veterans are calling in to our hotline and most likely your local congressional offices.    The complaints fall into the following general categories: program eligibility enrollment; the authorization process; appointments and scheduling; and veteran provider payments.    In conclusion, our recent work has shown that VA faces challenges in administrating its purchased care programs. While purchasing health care services may afford VA flexibility in terms of expanded access to care and services that are not readily available at VA medical facilities, it also poses a significant risk to VA, and more importantly, a great deal of frustration and risk to our veterans' health when adequate controls are not in place.    Without adequate controls, VA's consolidation plan is at an increased risk of not achieving its goal of delivering timely and efficient health care to our veterans.    Mr. Chairman, this concludes my statement. We would be happy to answer any questions you or the Members of the Subcommittee may have.    [The prepared statement of Gary K. Abe appears in the Appendix]</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Benishek. Thank you very much, Mr. Abe. I appreciate you including your personal experience.    Dr. Yehia, you are recognized.</t>
   </si>
   <si>
+    <t>Yehia</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Dr. Yehia. Thank you.    Good morning Chairman Benishek and Members of the Subcommittee. Thank you for the opportunity to testify today regarding the department's plan to consolidate community care programs, specifically on our efforts to improve billing and reimbursement.    I am accompanied today by Gene Migliaccio who is our Deputy Chief Business Officer for Purchased Care.    And I would like to take a moment, and look forward to the discussions from some of the other panelists and their experiences, and be able to talk a little bit about some of the improvements we are doing to address those.    To start, community providers are critical to VA's ability to deliver timely and quality care to veterans. As a clinician, I personally understand the importance of these partnerships and often jointly care for veterans with community providers.    To strengthen and grow these important relationships, VA recognizes a need to pay claims accurately and timely. For many providers, late payments have a major impact on the practice, and may cause some not to care for our veterans. We know this is unacceptable, and it is particularly problematic in rural areas where the number of providers is limited. Late payments may also negatively impact our veterans by creating unnecessary financial hardships. That is why in our plan to consolidate community care programs, we are keenly focused on improving how we interact with community providers including payment.    I want to provide the Subcommittee with an update on our progress since the June 3rd hearing related to claims processing and prompt payment.    In the last eight months, we have focused our efforts on improving people, process, and technology. So first, related to people, we filled 220 vacancies in 57 days and that is 33 days faster than our 90-day goal. We also provided and implemented productivity and quality standards.    Second related to process, we have implemented real-time monitoring of claims to ensure that the oldest claims are paid first, and we are actively removing any unnecessary steps that may be barriers to paying timely claims.    Third related to technology, we continue to try to automate steps where we can and, for example, we removed the duplicate claims process and now that is automated.    These efforts have produced results. As of today, 81 percent of authorized claims, meaning our current, meaning they are within 30 days of receipt. This compares to 73 percent in June of last year.    Some sites have improved more than others. So, for example, in Louisiana, claims processing has improved from 69 percent to 96 percent in the last six months. This improvement is even more noteworthy given the fact that we continue to experience tremendous growth in the claims volume.    Last fiscal year, we processed roughly 17 million claims which represents a 21 increase from the prior year. Even though we continue to improve in this area, there is still much work to be done to meet industry expectations.    We also recognize that our Choice contractors have not been paid timely and understand the frustration this has caused. We are actively working to address these issues with an eye towards removing any barriers in the contract that may slow payment.    I believe that open communication is critical for these partnerships to work, and have made it a point to meet weekly with the executives from Health Net and TriWest to talk about issues that we are discussing today. Getting these partnerships right is important for VA, and impacts our relationship with community providers and the veterans that we serve.    We are taking steps to improve community care today, but also looking towards the future incorporating lessons learned from the current program and industry best practice. We aim to move towards a claims solution that is more fully automated. That is why in the recently released draft performance work statement, we include a specific section focused on claims processing and payment.    Lastly, we take the recommendations from GAO and OIG seriously. We are closely monitoring their reports and working to resolve issues that are identified. However, we do need help from Congress to formalize VA's prompt pay standard which will help us align with current industry practice, and then also help from Congress to change the recording of obligations to the time of payment so that we can improve our accuracy in terms of funding.    These two proposals will address many of the deficiencies identified in both GAO and OIG reports. Getting provider payment is critically important. We look forward to continuing to work with veterans, veteran service organizations, yourself, and Congress as well as we move forward.    I appreciate the opportunity to appear before you today, and am prepared to answer any questions you or other Members may have. Thank you.    [The prepared statement of Baligh Yehia appears in the Appendix]</t>
   </si>
   <si>
@@ -124,6 +148,9 @@
     <t xml:space="preserve">    Mr. Takano. Okay. I don't know who can answer this question, but where do third-party administrators fit into the new Veterans Choice Program? Are you going to create your own high-performing network in-house or how will the VA communicate with veterans using care in the community for their health care?</t>
   </si>
   <si>
+    <t>Migliaccio</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Migliaccio. Sir, I will take that question. The work we have been doing over the past since we were here in June of last year talking about prompt pay and the hard work that we put together in terms of the plan that we delivered to Congress at the end of October, we have also stood up as a part of the plan, something we call an integrated project team to focus on the future state.    Looking at our patient-centered community care contract that we call PC3, we are looking for a follow-on contract. So what we are looking at in that contract is to look at high-performing networks, a claims solution, and other areas that we can support purchasing care in the community for our veterans.    And I just want to give you a couple of examples, and we have been working at really a brisk, fast pace. We stood up this group a number of months back. In December, we had met with industry for an industry day. We presented our preliminary request for information, met with over 80 individuals representing 30 major health care entities in the country.    From our meeting with industry, we developed, as Dr. Yehia had mentioned, a draft performance work statement that was released just a few weeks ago that will form and shape a draft request for proposal. We will come back to industry very very soon after, and then put a formalized request for proposal out in the next two months.</t>
   </si>
   <si>
@@ -154,6 +181,12 @@
     <t>412310</t>
   </si>
   <si>
+    <t>Roe</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Roe. Thank you, Mr. Chairman.    First of all, I applaud VA for consolidating these six programs that are different. That makes it very, very hard to administer. There is no question. We have got different rules.    Let me sort of lay out where I think falling short has hurt the VA like Mr. Abe in trying to get care. I have said this a hundred times if I have said it once in this hearing. I have made hundreds or thousands of appointments for people. It ain't that hard to do. And Mr. Abe could pick the phone up and call his primary care doctor and make an appointment in five minutes. I can do that right now while we are waiting. It is not hard.    We made it incredibly complicated and he had to wait almost six months to get an appointment with a doctor that he needed to see that his primary care doctor decided.    The other thing that the VA has done that has really hurt--in a group like my size, if we don't get paid promptly, we have enough cash reserves to survive that. If you are in a small one or two or three person practice, you cannot.    And when the payments have been cut with Medicare down to really very low levels, when you have an ACA out there that has created an out-of-pocket expense that most people can't afford, three or four thousand dollars out of pocket, they can't pay the doctor.    And then the VA decides not to pay the doctor. You are out of business. And that is why they don't want to see, and even the reimbursement levels. Most of us, many of us are veterans, some are not, you almost never talk to a provider who doesn't want to take care of a veteran. I mean, they just want to do it for a lot of noble reasons.    So my question, I want to start out is why didn't the VA just use a system like the Medicare is doing? They paid us promptly, quickly. I filed a lot of claims last year during my wife's illness. Blue Cross and Blue Shield, they figured it out. They paid the hospital and the doctors very very promptly. What is the big deal? Why can't you just do that?</t>
   </si>
   <si>
@@ -190,12 +223,18 @@
     <t xml:space="preserve">    Mr. Roe. My time is about up. Let me--</t>
   </si>
   <si>
+    <t>Roe [continued]</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Roe [continued]. --just tell you the real-world implications of that. Okay? I have a friend of mine who retired from his dental practice because there is always not enough dentists at a VA. He sees just VA patients. That very thing has happened where he works, so he doesn't get paid.    So he is going to have to close his dental practice because of what you guys are doing to pay claims somewhere else. And that means that veterans in a facility close to where I live are not going to get dental care.    I yield back my time.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Benishek. Mr. O'Rourke, you are up.</t>
   </si>
   <si>
+    <t>O'Rourke</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. O'Rourke. Thank you, Mr. Chairman.    Dr. Yehia, thank you for helping us better understand the plan and the proposal.    And I want to begin by saying, when Dr. Shulkin, you, and the team first announced this in October, it was very encouraging and I was very excited by the vision that you all outlined for the VA. It was comprehensive. It made sense of leveraging community capacity. And what I read into it was having the VA better focus on what I think its core priorities should be.    But given the skepticism well earned by the VA that I hear from Mr. Williamson and Mr. Abe, and in Mr. Abe's case from his personal experience included, given the fact that you have ten and a half months left, given the scope of these changes, and then again to bring up what I think is the most critical urgent priority, reducing veterans' suicide, and the crisis that we have there, that really will take concentrated focus for us to make a meaningful impact, what of this lift could you offload to someone else either in the public or private sector?    So to follow-up on Dr. Roe's question, if CMS has a 99 percent under 30-day pay rate, I know there are obstacles, and I know these are different animals, but is there a way to bust through that and contract this with CMS who seems to have figured this out, and has a lot of experience doing it right, or at least better than the VA? Is there some other part of the billing reimbursement validation process that could be outsourced to a private provider who does this really, really well and we could set these benchmarks and standards?    So that will be my first question. The second one, a shorter one, can we get a copy of the draft performance work statement that you keep referring to? So my two questions for you.</t>
   </si>
   <si>
@@ -241,6 +280,12 @@
     <t>412271</t>
   </si>
   <si>
+    <t>Coffman</t>
+  </si>
+  <si>
+    <t>Mike</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Coffman. Thank you, Mr. Chairman.    Well, whoever would like to answer this. I have heard time and time again from ambulance companies that VA misapplies a prudent layperson standard for emergency transportation.    For example, VA has been requiring ambulance providers to wait for underlying emergency care claims to be processed, and to provide medical documentation from the veterans' emergency room visit prior to processing the transportation claims. Although VA insists this isn't required, clearly the practice continues throughout the country, and veterans are often left with the bill.    What is needed to correct the prudent layperson standard in the case of emergency ambulatory care? Who can answer that question? Yes.</t>
   </si>
   <si>
@@ -250,6 +295,9 @@
     <t xml:space="preserve">    Mr. Coffman. Okay. Last Saturday, I spoke at a convention for ophthalmologists. There were about 400 in Colorado. Well, last Sunday. And there were some VA personnel in there as well, docs as well. And everybody seemed to uniformly complain about Health Net--</t>
   </si>
   <si>
+    <t>Coffman [continued]</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Coffman [continued]. --and just how impossible it was to get paid. Is that the case throughout the country, or is this something endemic to Colorado?</t>
   </si>
   <si>
@@ -283,6 +331,12 @@
     <t>412519</t>
   </si>
   <si>
+    <t>Ruiz</t>
+  </si>
+  <si>
+    <t>Raul</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Ruiz. Thank you, Mr. Chairman.    The damage veterans suffer due to the VA's current billing and reimbursement system is irreparable and unacceptable. A decorated Vietnam combat veteran from my district attempted to pursue care in the community for orthopedic issues and pain management. After navigating the complex and burdensome process of receiving care within his community, he was diagnosed with soft pallet complications that would require surgery before other issues could be addressed.    As he learned to treat and manage his neck and back injuries, he also learned that the VA refused to pay his medical bills in a timely manner. This delayed payment meant that the patient couldn't just concentrate on improving his health, he had to spend time worrying about his credit as the clinic, and later collections agencies hounded him for payment of his medical bills.    Now this veteran has damaged health and damaged credit due to the VA. The VA is meant to serve veterans, but it is clear in this instance that they did the exact opposite. They added a bad credit to a veteran who is barely making ends meet. This was a grave disservice to him, one of our Nation's heroes.    So we talked about how the complicated system affects physicians and physicians' ability to provide that care, but how does your team plan, and this is to Dr. Yehia, how do you and your team plan to prevent this from happening in the future?</t>
   </si>
   <si>
@@ -301,6 +355,9 @@
     <t xml:space="preserve">    Dr. Yehia. Because they are not--</t>
   </si>
   <si>
+    <t>Ruiz [continued]</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Ruiz [continued]. --as Dr. Roe said are hurting.</t>
   </si>
   <si>
@@ -346,6 +403,12 @@
     <t>412564</t>
   </si>
   <si>
+    <t>Wenstrup</t>
+  </si>
+  <si>
+    <t>Brad</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Wenstrup. Thank you, Mr. Chairman.    If I can just add to that, I would hope that we don't have to keep adding layers upon layers because layer one isn't being done. Now you have layer two of writing letters saying, hey, it is not this guy's fault. I mean, thank you for doing that, but that is not the answer obviously.    My next question is, what does the individual, the patient, the veteran do, and what does the physician do when these claims aren't getting paid? Is there a customer service branch that they can reach and have the same person to talk to when they call about the claim either from the doctor's office or on behalf of the veteran or are they just--because I have been getting reports that every time they call, it is somebody different and they have to start all over and wondering where this is taking place?</t>
   </si>
   <si>
@@ -373,6 +436,12 @@
     <t>412429</t>
   </si>
   <si>
+    <t>Huelskamp</t>
+  </si>
+  <si>
+    <t>Tim</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Huelskamp. Thank you, Mr. Chairman. I will try to arrive at that time again in the future. This is pretty quick. And I apologize for being late. There was another Subcommittee hearing. And if I repeat some questions, hopefully it still provides some insight.    But yesterday, I visited with, I do not remember whatever deputy under secretary it was, said that we were going to see some changes, and paying before a paper claim would be required, and some changes there. Doctor, can you describe that a little bit more? It was a short part of the discussion in my questions yesterday.</t>
   </si>
   <si>
@@ -445,6 +514,9 @@
     <t xml:space="preserve">    Mr. Huelskamp. Oh my.</t>
   </si>
   <si>
+    <t>Migliaccio [continued]</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Migliaccio [continued]. --innovative physicians, you know, kept a number of lines going so they could continue their questions about their claims status. Well after our hearing in June, we went back and we stopped that practice because it did not make any sense.</t>
   </si>
   <si>
@@ -466,6 +538,9 @@
     <t xml:space="preserve">    Mr. Benishek. Mr. Lamborn?</t>
   </si>
   <si>
+    <t>Lamborn</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Lamborn. Thank you, Mr. Chairman, and thanks for having this hearing. I am sure you were probably watching the discussion we had with Secretary McDonald yesterday. And one thing that I was, and continue to be very upset and concerned about, is the recent Inspector General's report on the problems in Colorado Springs. And whether we call it falsifying or just bad training and poor recordkeeping, there were people on the wait list who went way beyond 30 days. And yet the records did not reflect that. And it was not an honest recordkeeping. It was not a proper recordkeeping. And part of the problem is also veterans who are eligible for the Choice program, which we are here today to talk about, were not put on that list of eligible veterans. And that was a big problem and continues to be.    Now the claim is that these have all been fixed in Colorado Springs. I think the jury is still out on that because we are still hearing reports of people falling through the cracks. And that simply should not be happening. In particular, and I know that you already discussed this today. And I apologize. I was at other meetings up until now, so I do not want to, sorry if I am covering old ground, but we have people, providers in the community, who are not being reimbursed on a timely basis. And I know this is anecdotal. But we have one provider in particular who has had to stop seeing veterans because he has not been paid for six months. Now how in this day and age, even if we are using fax machines, how can this be happening?</t>
   </si>
   <si>
@@ -490,6 +565,9 @@
     <t xml:space="preserve">    Mr. Benishek. Mr. Posey, you are recognized.</t>
   </si>
   <si>
+    <t>Posey</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Posey. Thank you very much, Mr. Chairman. And thank you so much for letting me participate in your Committee today. Doctor Yehia, I hate to be redundant, but my concerns are very similar to those expressed by virtually every other Member of the Subcommittee. In my congressional district, we are already losing doctors because they have had such a bureaucratic nightmare trying to get paid. The physician's billing department is being told that it is something they did wrong, even when they make the required changes. It is as much as five months time. And from what I have heard, my guys are lucky it is only taking them five months to get paid.    Can you tell me what is being done to shorten the time between billing and payment? And what I mean by that is, besides just saying this is what we are doing, can you tell me where it has been enacted? Or have you got rules that have changed that?</t>
   </si>
   <si>
@@ -541,12 +619,18 @@
     <t xml:space="preserve">    Mr. Benishek. The panel is now excused. Thank you very much.    Joining us on our second panel is Roscoe G. Butler, the Deputy Director of the National Veterans Affairs and Rehabilitation Division of the American Legion; and Carlos Fuentes, the Senior Legislative Associate for the Veterans of Foreign Wars. I appreciate you coming today, gentlemen. And Mr. Butler, you can begin when you are ready. Thank you.</t>
   </si>
   <si>
+    <t>Butler</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Butler. Thank you. The American Legion is committed to a strong, robust veterans health care system designed to treat the unique needs of those who have worn the uniform. However, even in the best of circumstances, there are situations where the system cannot meet the needs of the veteran and the veteran must seek care in the community.    Chairman Benishek and Members of the Subcommittee on Health, I am privileged to be here today and to speak on behalf of The American Legion, our National Commander Dale Barnett, and more than two million members in over 14,000 posts across the country that make up the backbone of the Nation's largest wartime veterans service organization.    The VA purchased care program dates back to 1945 when VA's Hometown Program was created. Since then, VA has implemented a number of programs in order to manage veterans health care when such care is not available in a VA health care facility, could not be provided in a timely manner, or is more cost effective, programs such as Fee Basis, Project Arch, PC3.    Most recently in 2014, the Veterans Choice Program was enacted so that more veterans could be referred outside the VA for needed health care services. However it quickly became apparent that layering yet another program on top of the numerous existing non-VA care programs each with their own unique set of requirements resulted in a complex and confusing landscape for veterans and community providers as well as the VA employees that serve and support them. Therefore Congress passed legislation in July of 2015 that required VA to develop a plan to consolidate existing community care programs, which VA delivered on October 30th, 2015.    Generally, the American Legion supports the plan to consolidate VA's multiple purchased care programs into one new Veterans Community Program. We believe it has the potential to improve and expand veterans' access to health care. Most depend on how VA will work with its employees, Congress, VSOs, private providers, academic affiliates, and other stakeholders as they move forward in developing and implementing the plan.    As noted in the plan, the current system is a decentralized and highly manual process. The new VCP plan proposes integrating most of VA's Community Care Program into one single program that would be seamless, transparent, and beneficial to enrolled veterans. VA states its new VCP will focus on operational efficiencies to include standardized billing and reimbursement as well as geographically adjusted fee schedules that are tied to Medicare and deemed appropriate.    These efforts would make it easier and more appealing for community health care providers to partner with VA. The American Legion strongly believes VA must standardize its reimbursement rates, but not set the rates too low where providers would be discouraged from signing up as participating providers in the new VCP, such as providers in Alaska and other rural areas.    In November 2015, we received an inquiry from a veteran requesting assistance with payment of a medical bill that was authorized under the current Veterans Community Care Program. The veteran explained that he was approved to be treated by a non-VA health care provider for a hernia surgery to be performed outside the VA. After the care was provided, VA payment was delayed for months which resulted in the claim being referred to an attorney's office for collection. As a result, the veteran expressed disbelief and has lost faith in the VA system.This should never happen, but occurs more often than it should.    The American Legion supports VA developing a 21st Century claims and reimbursement process that is rules-based, and to the extent, possible eliminates as much human intervention as possible. Therefore, we are pleased to see that VA proposes to implement a claims solution which is able to auto-adjudicate a high percentage of claims, enabling VA to pay community health care providers promptly and correctly, and to move to a standardized reasonable fee schedule to the extent practicable for consistency in reimbursement.    However, we do not believe Congress should continue to provide VA an open checkbook without any assurance from VA that the plan will work. Much as further funding for the joint electronic record is contingent on providing benchmarks are met, Congress can and should require progress benchmarks here.    In conclusion, VA plans for the new Veterans Choice Program need Congress' approval. The American Legion believes the VA plan is a reasonable one given that desired result. VA has identified a number of necessary legislative items that require action by Congress in the short legislative window available this year in order to best serve veterans going forward in 2016. The American Legion supports many of those, such as measures budget flexibility, the Purchased Healthcare Streamlining and Modernization Act, flexibility for the Federal work period requirement, and special pay authority to help VA recruit and retain the best talent possible to lead their hospitals and health care networks.    The American Legion believes that together, we can accomplish these legislative changes before the end of this session of Congress. We cannot let another year slip away. Our veterans deserve the same sense of urgency now that Congress has shown numerous times since the VA scandal first erupted in 2014.    The American Legion thanks this Committee for their diligence and commitment to our veterans, and as they struggle to access health care across the country. And I am happy to answer any questions.    [The prepared statement of Roscoe G. Butler appears in the Appendix]</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Benishek. Thank you, Mr. Butler. Mr. Fuentes, five minutes.</t>
   </si>
   <si>
+    <t>Fuentes</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Fuentes. Mr. Chairman, Members of the Subcommittee, on behalf of the VFW and our Auxiliary, I would like to thank you for the opportunity to present our views on VA's plan to consolidate community care programs.    The brave men and women who have worn our Nation's uniform have earned and deserve timely access to high quality, comprehensive, and veteran-centric health care. That is why the VFW has made a concerted effort to evaluate the VA health care system and has worked with VA, Congress, and other stakeholders to implement reasonable solutions to issues we have identified.    In the past year, we have collected and evaluated direct feedback from more than 12,000 veterans. Through this work, we have identified several concerns with the Choice program. Given the focus of today's hearing, I would limit my remarks to billing issues we have identified.    The most common billing complaint we hear from veterans who use the Choice program is that they have been improperly billed for their community care appointments. This typically occurs when a veteran is authorized to use the Choice program, but requires follow-up care that is outside of the scope of the original authorization. This is where the program often fails veterans. At times, a veteran arrives to a follow-up appointment before the care is authorized, so the veteran is either required to reschedule the appointment or assume the responsibility for the cost of that care. Most veterans reschedule that appointment and are forced to wait longer for the care they need.    In some instances, a veteran arrives at the appointment and is unaware the care is not authorized. If the veteran's provider is also unaware of the authorization status, or fails to inform the veteran, the veteran may be billed for the cost of that care. For example, a veteran in Saginaw, Michigan was authorized to use the Choice program for a vision exam. The provider prescribed him a specific treatment to save his vision. Since the provider was unable to administer that treatment, he was referred to a clinic nearby, where he received four courses of that treatment before being told that VA refused to pay his bill, and that he would need to pay his outstanding balance before he could continue to be seen. The VFW worked with Health Net to ensure that that veteran could continue his treatment while we figured out a way to pay for his bill. Since his treatment at the clinic was beyond the scope of the original authorization, Health Net did not have the ability to retroactively authorize the veteran's care. Luckily, we were able to work with VA to have his bill paid, but it should not require our involvement to resolve this issue. That is why the VFW urges Congress and VA to empower local VA community care staff and the program's contractors to make common sense exemptions to the Choice program requirements to prevent veterans from being needlessly billed for care VA is required to furnish.    The VFW also believes that it is time to fully integrate community care providers into the veterans health care delivery model to ensure veterans have timely access to high quality comprehensive veteran-centric health care without having to cut through bureaucratic red tape.    The VFW has also learned that providers at times are responsible for improper payments or billing. The Choice program requires that payment be contingent on providers providing the medical documentation. Private sector providers are not accustomed to reporting medical documentation before receiving payment. As a result, some of them will bill the veteran before sending VA or the program's contractors the requisite medical records. To address this issue, VA has proposed decoupling medical documentation and payments. We are concerned that decoupling medical records and payments would remove the incentive of community care providers to share medical records with VA which could impact VA's ability to verify the quality of care veterans receive. Ultimately, we will hold VA accountable for providing high quality care to veterans, regardless if it is at a VA medical facility or through community care providers. In order to ensure that quality, VA needs that medical documentation.    The VFW believes that this issue can be addressed without decoupling medical documentation. For example, VA could develop IT solutions to facilitate a seamless integration of the health care records between medical facilities and their community care partners. This would prevent community providers from having to PDF or fax medical records to VA, and ensure that VA can verify the quality of care veterans receive.    As this Committee continues to evaluate VA's plan to consolidate community care programs, the VFW will continue to ensure veterans' preferences and health care needs are prioritized. Mr. Chairman, this concludes my remarks and I am ready to answer any questions you may have.    [The prepared statement of Carlos Fuentes appears in the Appendix]</t>
   </si>
   <si>
@@ -563,6 +647,9 @@
   </si>
   <si>
     <t xml:space="preserve">    Mr. Benishek. Right.</t>
+  </si>
+  <si>
+    <t>Fuentes [continued]</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Fuentes [continued]. --guarantee that care.</t>
@@ -986,7 +1073,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H196"/>
+  <dimension ref="A1:I196"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -994,7 +1081,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1016,4685 +1103,5449 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
       <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s"/>
-      <c r="H5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" t="s"/>
+      <c r="I5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
       <c r="H6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" t="s"/>
-      <c r="H7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" t="s"/>
+      <c r="I7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
       <c r="H8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" t="s"/>
-      <c r="H9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" t="s"/>
+      <c r="I9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
       <c r="H10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" t="s"/>
+      <c r="I11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
       <c r="H12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" t="s"/>
-      <c r="H13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" t="s"/>
+      <c r="I13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
       <c r="H14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" t="s"/>
-      <c r="H15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G15" t="s">
+        <v>28</v>
+      </c>
+      <c r="H15" t="s"/>
+      <c r="I15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
       <c r="H16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>16</v>
-      </c>
-      <c r="G17" t="s"/>
-      <c r="H17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G17" t="s">
+        <v>28</v>
+      </c>
+      <c r="H17" t="s"/>
+      <c r="I17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
       <c r="H18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>16</v>
-      </c>
-      <c r="G19" t="s"/>
-      <c r="H19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G19" t="s">
+        <v>28</v>
+      </c>
+      <c r="H19" t="s"/>
+      <c r="I19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G20" t="s">
+        <v>13</v>
+      </c>
       <c r="H20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G21" t="s">
+        <v>17</v>
+      </c>
       <c r="H21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
+        <v>21</v>
+      </c>
+      <c r="G22" t="s">
+        <v>25</v>
+      </c>
+      <c r="H22" t="s"/>
+      <c r="I22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" t="s">
         <v>16</v>
       </c>
-      <c r="G22" t="s"/>
-      <c r="H22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" t="s">
-        <v>9</v>
-      </c>
-      <c r="E23" t="s">
-        <v>10</v>
-      </c>
-      <c r="F23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G23" t="s"/>
+      <c r="G23" t="s">
+        <v>17</v>
+      </c>
       <c r="H23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>16</v>
-      </c>
-      <c r="G24" t="s"/>
-      <c r="H24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G24" t="s">
+        <v>44</v>
+      </c>
+      <c r="H24" t="s"/>
+      <c r="I24" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>13</v>
-      </c>
-      <c r="G25" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G25" t="s">
+        <v>17</v>
+      </c>
       <c r="H25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I25" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>16</v>
-      </c>
-      <c r="G26" t="s"/>
-      <c r="H26" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G26" t="s">
+        <v>44</v>
+      </c>
+      <c r="H26" t="s"/>
+      <c r="I26" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G27" t="s">
+        <v>17</v>
+      </c>
       <c r="H27" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>16</v>
-      </c>
-      <c r="G28" t="s"/>
-      <c r="H28" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G28" t="s">
+        <v>28</v>
+      </c>
+      <c r="H28" t="s"/>
+      <c r="I28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>13</v>
-      </c>
-      <c r="G29" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G29" t="s">
+        <v>17</v>
+      </c>
       <c r="H29" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I29" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>16</v>
-      </c>
-      <c r="G30" t="s"/>
-      <c r="H30" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G30" t="s">
+        <v>28</v>
+      </c>
+      <c r="H30" t="s"/>
+      <c r="I30" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>13</v>
-      </c>
-      <c r="G31" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G31" t="s">
+        <v>17</v>
+      </c>
       <c r="H31" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I31" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G32" t="s">
+        <v>13</v>
+      </c>
       <c r="H32" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I32" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>45</v>
-      </c>
-      <c r="G33" t="s"/>
+        <v>54</v>
+      </c>
+      <c r="G33" t="s">
+        <v>55</v>
+      </c>
       <c r="H33" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>56</v>
+      </c>
+      <c r="I33" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>16</v>
-      </c>
-      <c r="G34" t="s"/>
-      <c r="H34" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G34" t="s">
+        <v>28</v>
+      </c>
+      <c r="H34" t="s"/>
+      <c r="I34" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>45</v>
-      </c>
-      <c r="G35" t="s"/>
+        <v>54</v>
+      </c>
+      <c r="G35" t="s">
+        <v>55</v>
+      </c>
       <c r="H35" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>56</v>
+      </c>
+      <c r="I35" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>16</v>
-      </c>
-      <c r="G36" t="s"/>
-      <c r="H36" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G36" t="s">
+        <v>28</v>
+      </c>
+      <c r="H36" t="s"/>
+      <c r="I36" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>45</v>
-      </c>
-      <c r="G37" t="s"/>
+        <v>54</v>
+      </c>
+      <c r="G37" t="s">
+        <v>55</v>
+      </c>
       <c r="H37" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>56</v>
+      </c>
+      <c r="I37" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>16</v>
-      </c>
-      <c r="G38" t="s"/>
-      <c r="H38" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G38" t="s">
+        <v>28</v>
+      </c>
+      <c r="H38" t="s"/>
+      <c r="I38" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>45</v>
-      </c>
-      <c r="G39" t="s"/>
+        <v>54</v>
+      </c>
+      <c r="G39" t="s">
+        <v>55</v>
+      </c>
       <c r="H39" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>56</v>
+      </c>
+      <c r="I39" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>16</v>
-      </c>
-      <c r="G40" t="s"/>
-      <c r="H40" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G40" t="s">
+        <v>28</v>
+      </c>
+      <c r="H40" t="s"/>
+      <c r="I40" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>45</v>
-      </c>
-      <c r="G41" t="s"/>
+        <v>54</v>
+      </c>
+      <c r="G41" t="s">
+        <v>55</v>
+      </c>
       <c r="H41" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>56</v>
+      </c>
+      <c r="I41" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>16</v>
-      </c>
-      <c r="G42" t="s"/>
-      <c r="H42" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G42" t="s">
+        <v>28</v>
+      </c>
+      <c r="H42" t="s"/>
+      <c r="I42" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>45</v>
-      </c>
-      <c r="G43" t="s"/>
+        <v>54</v>
+      </c>
+      <c r="G43" t="s">
+        <v>55</v>
+      </c>
       <c r="H43" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>56</v>
+      </c>
+      <c r="I43" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>16</v>
-      </c>
-      <c r="G44" t="s"/>
-      <c r="H44" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G44" t="s">
+        <v>28</v>
+      </c>
+      <c r="H44" t="s"/>
+      <c r="I44" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>45</v>
-      </c>
-      <c r="G45" t="s"/>
+        <v>54</v>
+      </c>
+      <c r="G45" t="s">
+        <v>55</v>
+      </c>
       <c r="H45" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>56</v>
+      </c>
+      <c r="I45" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>16</v>
-      </c>
-      <c r="G46" t="s"/>
-      <c r="H46" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G46" t="s">
+        <v>28</v>
+      </c>
+      <c r="H46" t="s"/>
+      <c r="I46" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>16</v>
-      </c>
-      <c r="G47" t="s"/>
-      <c r="H47" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G47" t="s">
+        <v>69</v>
+      </c>
+      <c r="H47" t="s"/>
+      <c r="I47" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>11</v>
-      </c>
-      <c r="G48" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G48" t="s">
+        <v>13</v>
+      </c>
       <c r="H48" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I48" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>16</v>
-      </c>
-      <c r="G49" t="s"/>
-      <c r="H49" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G49" t="s">
+        <v>72</v>
+      </c>
+      <c r="H49" t="s"/>
+      <c r="I49" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>16</v>
-      </c>
-      <c r="G50" t="s"/>
-      <c r="H50" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G50" t="s">
+        <v>28</v>
+      </c>
+      <c r="H50" t="s"/>
+      <c r="I50" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>16</v>
-      </c>
-      <c r="G51" t="s"/>
-      <c r="H51" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G51" t="s">
+        <v>72</v>
+      </c>
+      <c r="H51" t="s"/>
+      <c r="I51" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>16</v>
-      </c>
-      <c r="G52" t="s"/>
-      <c r="H52" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G52" t="s">
+        <v>28</v>
+      </c>
+      <c r="H52" t="s"/>
+      <c r="I52" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>16</v>
-      </c>
-      <c r="G53" t="s"/>
-      <c r="H53" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G53" t="s">
+        <v>72</v>
+      </c>
+      <c r="H53" t="s"/>
+      <c r="I53" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>16</v>
-      </c>
-      <c r="G54" t="s"/>
-      <c r="H54" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G54" t="s">
+        <v>22</v>
+      </c>
+      <c r="H54" t="s"/>
+      <c r="I54" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>16</v>
-      </c>
-      <c r="G55" t="s"/>
-      <c r="H55" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G55" t="s">
+        <v>72</v>
+      </c>
+      <c r="H55" t="s"/>
+      <c r="I55" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>16</v>
-      </c>
-      <c r="G56" t="s"/>
-      <c r="H56" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G56" t="s">
+        <v>28</v>
+      </c>
+      <c r="H56" t="s"/>
+      <c r="I56" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>16</v>
-      </c>
-      <c r="G57" t="s"/>
-      <c r="H57" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G57" t="s">
+        <v>72</v>
+      </c>
+      <c r="H57" t="s"/>
+      <c r="I57" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>16</v>
-      </c>
-      <c r="G58" t="s"/>
-      <c r="H58" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G58" t="s">
+        <v>28</v>
+      </c>
+      <c r="H58" t="s"/>
+      <c r="I58" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>16</v>
-      </c>
-      <c r="G59" t="s"/>
-      <c r="H59" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G59" t="s">
+        <v>72</v>
+      </c>
+      <c r="H59" t="s"/>
+      <c r="I59" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>16</v>
-      </c>
-      <c r="G60" t="s"/>
-      <c r="H60" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G60" t="s">
+        <v>25</v>
+      </c>
+      <c r="H60" t="s"/>
+      <c r="I60" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>16</v>
-      </c>
-      <c r="G61" t="s"/>
-      <c r="H61" t="s">
+        <v>21</v>
+      </c>
+      <c r="G61" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="62" spans="1:8">
+      <c r="H61" t="s"/>
+      <c r="I61" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>11</v>
-      </c>
-      <c r="G62" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G62" t="s">
+        <v>13</v>
+      </c>
       <c r="H62" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I62" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>74</v>
-      </c>
-      <c r="G63" t="s"/>
+        <v>87</v>
+      </c>
+      <c r="G63" t="s">
+        <v>88</v>
+      </c>
       <c r="H63" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>89</v>
+      </c>
+      <c r="I63" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>16</v>
-      </c>
-      <c r="G64" t="s"/>
-      <c r="H64" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G64" t="s">
+        <v>28</v>
+      </c>
+      <c r="H64" t="s"/>
+      <c r="I64" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>74</v>
-      </c>
-      <c r="G65" t="s"/>
+        <v>87</v>
+      </c>
+      <c r="G65" t="s">
+        <v>88</v>
+      </c>
       <c r="H65" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>89</v>
+      </c>
+      <c r="I65" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>16</v>
-      </c>
-      <c r="G66" t="s"/>
-      <c r="H66" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G66" t="s">
+        <v>28</v>
+      </c>
+      <c r="H66" t="s"/>
+      <c r="I66" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>16</v>
-      </c>
-      <c r="G67" t="s"/>
-      <c r="H67" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G67" t="s">
+        <v>93</v>
+      </c>
+      <c r="H67" t="s"/>
+      <c r="I67" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>16</v>
-      </c>
-      <c r="G68" t="s"/>
-      <c r="H68" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G68" t="s">
+        <v>28</v>
+      </c>
+      <c r="H68" t="s"/>
+      <c r="I68" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>74</v>
-      </c>
-      <c r="G69" t="s"/>
+        <v>87</v>
+      </c>
+      <c r="G69" t="s">
+        <v>88</v>
+      </c>
       <c r="H69" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>89</v>
+      </c>
+      <c r="I69" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>16</v>
-      </c>
-      <c r="G70" t="s"/>
-      <c r="H70" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G70" t="s">
+        <v>28</v>
+      </c>
+      <c r="H70" t="s"/>
+      <c r="I70" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>74</v>
-      </c>
-      <c r="G71" t="s"/>
+        <v>87</v>
+      </c>
+      <c r="G71" t="s">
+        <v>88</v>
+      </c>
       <c r="H71" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>89</v>
+      </c>
+      <c r="I71" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>16</v>
-      </c>
-      <c r="G72" t="s"/>
-      <c r="H72" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G72" t="s">
+        <v>28</v>
+      </c>
+      <c r="H72" t="s"/>
+      <c r="I72" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>74</v>
-      </c>
-      <c r="G73" t="s"/>
+        <v>87</v>
+      </c>
+      <c r="G73" t="s">
+        <v>88</v>
+      </c>
       <c r="H73" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>89</v>
+      </c>
+      <c r="I73" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>16</v>
-      </c>
-      <c r="G74" t="s"/>
-      <c r="H74" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G74" t="s">
+        <v>28</v>
+      </c>
+      <c r="H74" t="s"/>
+      <c r="I74" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>74</v>
-      </c>
-      <c r="G75" t="s"/>
+        <v>87</v>
+      </c>
+      <c r="G75" t="s">
+        <v>88</v>
+      </c>
       <c r="H75" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>89</v>
+      </c>
+      <c r="I75" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>11</v>
-      </c>
-      <c r="G76" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G76" t="s">
+        <v>13</v>
+      </c>
       <c r="H76" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I76" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>88</v>
-      </c>
-      <c r="G77" t="s"/>
+        <v>104</v>
+      </c>
+      <c r="G77" t="s">
+        <v>105</v>
+      </c>
       <c r="H77" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>106</v>
+      </c>
+      <c r="I77" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>16</v>
-      </c>
-      <c r="G78" t="s"/>
-      <c r="H78" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G78" t="s">
+        <v>28</v>
+      </c>
+      <c r="H78" t="s"/>
+      <c r="I78" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>88</v>
-      </c>
-      <c r="G79" t="s"/>
+        <v>104</v>
+      </c>
+      <c r="G79" t="s">
+        <v>105</v>
+      </c>
       <c r="H79" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>106</v>
+      </c>
+      <c r="I79" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>16</v>
-      </c>
-      <c r="G80" t="s"/>
-      <c r="H80" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G80" t="s">
+        <v>28</v>
+      </c>
+      <c r="H80" t="s"/>
+      <c r="I80" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>88</v>
-      </c>
-      <c r="G81" t="s"/>
+        <v>104</v>
+      </c>
+      <c r="G81" t="s">
+        <v>105</v>
+      </c>
       <c r="H81" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>106</v>
+      </c>
+      <c r="I81" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>16</v>
-      </c>
-      <c r="G82" t="s"/>
-      <c r="H82" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G82" t="s">
+        <v>28</v>
+      </c>
+      <c r="H82" t="s"/>
+      <c r="I82" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>16</v>
-      </c>
-      <c r="G83" t="s"/>
-      <c r="H83" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G83" t="s">
+        <v>113</v>
+      </c>
+      <c r="H83" t="s"/>
+      <c r="I83" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>16</v>
-      </c>
-      <c r="G84" t="s"/>
-      <c r="H84" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G84" t="s">
+        <v>28</v>
+      </c>
+      <c r="H84" t="s"/>
+      <c r="I84" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>88</v>
-      </c>
-      <c r="G85" t="s"/>
+        <v>104</v>
+      </c>
+      <c r="G85" t="s">
+        <v>105</v>
+      </c>
       <c r="H85" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>106</v>
+      </c>
+      <c r="I85" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>16</v>
-      </c>
-      <c r="G86" t="s"/>
-      <c r="H86" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G86" t="s">
+        <v>28</v>
+      </c>
+      <c r="H86" t="s"/>
+      <c r="I86" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>88</v>
-      </c>
-      <c r="G87" t="s"/>
+        <v>104</v>
+      </c>
+      <c r="G87" t="s">
+        <v>105</v>
+      </c>
       <c r="H87" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>106</v>
+      </c>
+      <c r="I87" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>16</v>
-      </c>
-      <c r="G88" t="s"/>
-      <c r="H88" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G88" t="s">
+        <v>28</v>
+      </c>
+      <c r="H88" t="s"/>
+      <c r="I88" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>16</v>
-      </c>
-      <c r="G89" t="s"/>
-      <c r="H89" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G89" t="s">
+        <v>113</v>
+      </c>
+      <c r="H89" t="s"/>
+      <c r="I89" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>16</v>
-      </c>
-      <c r="G90" t="s"/>
-      <c r="H90" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G90" t="s">
+        <v>28</v>
+      </c>
+      <c r="H90" t="s"/>
+      <c r="I90" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>88</v>
-      </c>
-      <c r="G91" t="s"/>
+        <v>104</v>
+      </c>
+      <c r="G91" t="s">
+        <v>105</v>
+      </c>
       <c r="H91" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>106</v>
+      </c>
+      <c r="I91" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>16</v>
-      </c>
-      <c r="G92" t="s"/>
-      <c r="H92" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G92" t="s">
+        <v>28</v>
+      </c>
+      <c r="H92" t="s"/>
+      <c r="I92" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>88</v>
-      </c>
-      <c r="G93" t="s"/>
+        <v>104</v>
+      </c>
+      <c r="G93" t="s">
+        <v>105</v>
+      </c>
       <c r="H93" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>106</v>
+      </c>
+      <c r="I93" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>16</v>
-      </c>
-      <c r="G94" t="s"/>
-      <c r="H94" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G94" t="s">
+        <v>28</v>
+      </c>
+      <c r="H94" t="s"/>
+      <c r="I94" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>16</v>
-      </c>
-      <c r="G95" t="s"/>
-      <c r="H95" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G95" t="s">
+        <v>44</v>
+      </c>
+      <c r="H95" t="s"/>
+      <c r="I95" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>88</v>
-      </c>
-      <c r="G96" t="s"/>
+        <v>104</v>
+      </c>
+      <c r="G96" t="s">
+        <v>105</v>
+      </c>
       <c r="H96" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>106</v>
+      </c>
+      <c r="I96" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>16</v>
-      </c>
-      <c r="G97" t="s"/>
-      <c r="H97" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G97" t="s">
+        <v>44</v>
+      </c>
+      <c r="H97" t="s"/>
+      <c r="I97" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>88</v>
-      </c>
-      <c r="G98" t="s"/>
+        <v>104</v>
+      </c>
+      <c r="G98" t="s">
+        <v>105</v>
+      </c>
       <c r="H98" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>106</v>
+      </c>
+      <c r="I98" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>11</v>
-      </c>
-      <c r="G99" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G99" t="s">
+        <v>13</v>
+      </c>
       <c r="H99" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I99" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>109</v>
-      </c>
-      <c r="G100" t="s"/>
+        <v>128</v>
+      </c>
+      <c r="G100" t="s">
+        <v>129</v>
+      </c>
       <c r="H100" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>130</v>
+      </c>
+      <c r="I100" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>16</v>
-      </c>
-      <c r="G101" t="s"/>
-      <c r="H101" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G101" t="s">
+        <v>28</v>
+      </c>
+      <c r="H101" t="s"/>
+      <c r="I101" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>109</v>
-      </c>
-      <c r="G102" t="s"/>
+        <v>128</v>
+      </c>
+      <c r="G102" t="s">
+        <v>129</v>
+      </c>
       <c r="H102" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>130</v>
+      </c>
+      <c r="I102" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>16</v>
-      </c>
-      <c r="G103" t="s"/>
-      <c r="H103" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G103" t="s">
+        <v>28</v>
+      </c>
+      <c r="H103" t="s"/>
+      <c r="I103" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>109</v>
-      </c>
-      <c r="G104" t="s"/>
+        <v>128</v>
+      </c>
+      <c r="G104" t="s">
+        <v>129</v>
+      </c>
       <c r="H104" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>130</v>
+      </c>
+      <c r="I104" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>16</v>
-      </c>
-      <c r="G105" t="s"/>
-      <c r="H105" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G105" t="s">
+        <v>28</v>
+      </c>
+      <c r="H105" t="s"/>
+      <c r="I105" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>109</v>
-      </c>
-      <c r="G106" t="s"/>
+        <v>128</v>
+      </c>
+      <c r="G106" t="s">
+        <v>129</v>
+      </c>
       <c r="H106" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>130</v>
+      </c>
+      <c r="I106" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>11</v>
-      </c>
-      <c r="G107" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G107" t="s">
+        <v>13</v>
+      </c>
       <c r="H107" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I107" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>118</v>
-      </c>
-      <c r="G108" t="s"/>
+        <v>139</v>
+      </c>
+      <c r="G108" t="s">
+        <v>140</v>
+      </c>
       <c r="H108" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>141</v>
+      </c>
+      <c r="I108" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F109" t="s">
-        <v>16</v>
-      </c>
-      <c r="G109" t="s"/>
-      <c r="H109" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G109" t="s">
+        <v>28</v>
+      </c>
+      <c r="H109" t="s"/>
+      <c r="I109" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>118</v>
-      </c>
-      <c r="G110" t="s"/>
+        <v>139</v>
+      </c>
+      <c r="G110" t="s">
+        <v>140</v>
+      </c>
       <c r="H110" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>141</v>
+      </c>
+      <c r="I110" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F111" t="s">
-        <v>16</v>
-      </c>
-      <c r="G111" t="s"/>
-      <c r="H111" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G111" t="s">
+        <v>28</v>
+      </c>
+      <c r="H111" t="s"/>
+      <c r="I111" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F112" t="s">
-        <v>118</v>
-      </c>
-      <c r="G112" t="s"/>
+        <v>139</v>
+      </c>
+      <c r="G112" t="s">
+        <v>140</v>
+      </c>
       <c r="H112" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>141</v>
+      </c>
+      <c r="I112" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F113" t="s">
-        <v>16</v>
-      </c>
-      <c r="G113" t="s"/>
-      <c r="H113" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G113" t="s">
+        <v>28</v>
+      </c>
+      <c r="H113" t="s"/>
+      <c r="I113" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F114" t="s">
-        <v>118</v>
-      </c>
-      <c r="G114" t="s"/>
+        <v>139</v>
+      </c>
+      <c r="G114" t="s">
+        <v>140</v>
+      </c>
       <c r="H114" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>141</v>
+      </c>
+      <c r="I114" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F115" t="s">
-        <v>16</v>
-      </c>
-      <c r="G115" t="s"/>
-      <c r="H115" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G115" t="s">
+        <v>28</v>
+      </c>
+      <c r="H115" t="s"/>
+      <c r="I115" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F116" t="s">
-        <v>118</v>
-      </c>
-      <c r="G116" t="s"/>
+        <v>139</v>
+      </c>
+      <c r="G116" t="s">
+        <v>140</v>
+      </c>
       <c r="H116" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>141</v>
+      </c>
+      <c r="I116" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F117" t="s">
-        <v>16</v>
-      </c>
-      <c r="G117" t="s"/>
-      <c r="H117" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G117" t="s">
+        <v>28</v>
+      </c>
+      <c r="H117" t="s"/>
+      <c r="I117" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F118" t="s">
-        <v>118</v>
-      </c>
-      <c r="G118" t="s"/>
+        <v>139</v>
+      </c>
+      <c r="G118" t="s">
+        <v>140</v>
+      </c>
       <c r="H118" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>141</v>
+      </c>
+      <c r="I118" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F119" t="s">
-        <v>16</v>
-      </c>
-      <c r="G119" t="s"/>
-      <c r="H119" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G119" t="s">
+        <v>28</v>
+      </c>
+      <c r="H119" t="s"/>
+      <c r="I119" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F120" t="s">
-        <v>118</v>
-      </c>
-      <c r="G120" t="s"/>
+        <v>139</v>
+      </c>
+      <c r="G120" t="s">
+        <v>140</v>
+      </c>
       <c r="H120" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>141</v>
+      </c>
+      <c r="I120" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F121" t="s">
-        <v>16</v>
-      </c>
-      <c r="G121" t="s"/>
-      <c r="H121" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G121" t="s">
+        <v>28</v>
+      </c>
+      <c r="H121" t="s"/>
+      <c r="I121" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F122" t="s">
-        <v>118</v>
-      </c>
-      <c r="G122" t="s"/>
+        <v>139</v>
+      </c>
+      <c r="G122" t="s">
+        <v>140</v>
+      </c>
       <c r="H122" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>141</v>
+      </c>
+      <c r="I122" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F123" t="s">
-        <v>16</v>
-      </c>
-      <c r="G123" t="s"/>
-      <c r="H123" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G123" t="s">
+        <v>28</v>
+      </c>
+      <c r="H123" t="s"/>
+      <c r="I123" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F124" t="s">
-        <v>118</v>
-      </c>
-      <c r="G124" t="s"/>
+        <v>139</v>
+      </c>
+      <c r="G124" t="s">
+        <v>140</v>
+      </c>
       <c r="H124" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>141</v>
+      </c>
+      <c r="I124" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F125" t="s">
-        <v>16</v>
-      </c>
-      <c r="G125" t="s"/>
-      <c r="H125" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G125" t="s">
+        <v>28</v>
+      </c>
+      <c r="H125" t="s"/>
+      <c r="I125" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F126" t="s">
-        <v>118</v>
-      </c>
-      <c r="G126" t="s"/>
+        <v>139</v>
+      </c>
+      <c r="G126" t="s">
+        <v>140</v>
+      </c>
       <c r="H126" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>141</v>
+      </c>
+      <c r="I126" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F127" t="s">
-        <v>16</v>
-      </c>
-      <c r="G127" t="s"/>
-      <c r="H127" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G127" t="s">
+        <v>28</v>
+      </c>
+      <c r="H127" t="s"/>
+      <c r="I127" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F128" t="s">
-        <v>16</v>
-      </c>
-      <c r="G128" t="s"/>
-      <c r="H128" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G128" t="s">
+        <v>44</v>
+      </c>
+      <c r="H128" t="s"/>
+      <c r="I128" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F129" t="s">
-        <v>118</v>
-      </c>
-      <c r="G129" t="s"/>
+        <v>139</v>
+      </c>
+      <c r="G129" t="s">
+        <v>140</v>
+      </c>
       <c r="H129" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+        <v>141</v>
+      </c>
+      <c r="I129" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F130" t="s">
-        <v>16</v>
-      </c>
-      <c r="G130" t="s"/>
-      <c r="H130" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G130" t="s">
+        <v>44</v>
+      </c>
+      <c r="H130" t="s"/>
+      <c r="I130" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F131" t="s">
-        <v>118</v>
-      </c>
-      <c r="G131" t="s"/>
+        <v>139</v>
+      </c>
+      <c r="G131" t="s">
+        <v>140</v>
+      </c>
       <c r="H131" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+        <v>141</v>
+      </c>
+      <c r="I131" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F132" t="s">
-        <v>16</v>
-      </c>
-      <c r="G132" t="s"/>
-      <c r="H132" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G132" t="s">
+        <v>166</v>
+      </c>
+      <c r="H132" t="s"/>
+      <c r="I132" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F133" t="s">
-        <v>118</v>
-      </c>
-      <c r="G133" t="s"/>
+        <v>139</v>
+      </c>
+      <c r="G133" t="s">
+        <v>140</v>
+      </c>
       <c r="H133" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+        <v>141</v>
+      </c>
+      <c r="I133" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F134" t="s">
-        <v>16</v>
-      </c>
-      <c r="G134" t="s"/>
-      <c r="H134" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G134" t="s">
+        <v>44</v>
+      </c>
+      <c r="H134" t="s"/>
+      <c r="I134" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F135" t="s">
-        <v>118</v>
-      </c>
-      <c r="G135" t="s"/>
+        <v>139</v>
+      </c>
+      <c r="G135" t="s">
+        <v>140</v>
+      </c>
       <c r="H135" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+        <v>141</v>
+      </c>
+      <c r="I135" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F136" t="s">
-        <v>11</v>
-      </c>
-      <c r="G136" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G136" t="s">
+        <v>13</v>
+      </c>
       <c r="H136" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I136" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F137" t="s">
-        <v>118</v>
-      </c>
-      <c r="G137" t="s"/>
+        <v>139</v>
+      </c>
+      <c r="G137" t="s">
+        <v>140</v>
+      </c>
       <c r="H137" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
+        <v>141</v>
+      </c>
+      <c r="I137" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F138" t="s">
-        <v>11</v>
-      </c>
-      <c r="G138" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G138" t="s">
+        <v>13</v>
+      </c>
       <c r="H138" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I138" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F139" t="s">
-        <v>16</v>
-      </c>
-      <c r="G139" t="s"/>
-      <c r="H139" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G139" t="s">
+        <v>174</v>
+      </c>
+      <c r="H139" t="s"/>
+      <c r="I139" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F140" t="s">
-        <v>16</v>
-      </c>
-      <c r="G140" t="s"/>
-      <c r="H140" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G140" t="s">
+        <v>28</v>
+      </c>
+      <c r="H140" t="s"/>
+      <c r="I140" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F141" t="s">
-        <v>16</v>
-      </c>
-      <c r="G141" t="s"/>
-      <c r="H141" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G141" t="s">
+        <v>174</v>
+      </c>
+      <c r="H141" t="s"/>
+      <c r="I141" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F142" t="s">
-        <v>16</v>
-      </c>
-      <c r="G142" t="s"/>
-      <c r="H142" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G142" t="s">
+        <v>28</v>
+      </c>
+      <c r="H142" t="s"/>
+      <c r="I142" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F143" t="s">
-        <v>16</v>
-      </c>
-      <c r="G143" t="s"/>
-      <c r="H143" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G143" t="s">
+        <v>174</v>
+      </c>
+      <c r="H143" t="s"/>
+      <c r="I143" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F144" t="s">
-        <v>16</v>
-      </c>
-      <c r="G144" t="s"/>
-      <c r="H144" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G144" t="s">
+        <v>28</v>
+      </c>
+      <c r="H144" t="s"/>
+      <c r="I144" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F145" t="s">
-        <v>16</v>
-      </c>
-      <c r="G145" t="s"/>
-      <c r="H145" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G145" t="s">
+        <v>174</v>
+      </c>
+      <c r="H145" t="s"/>
+      <c r="I145" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F146" t="s">
-        <v>11</v>
-      </c>
-      <c r="G146" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G146" t="s">
+        <v>13</v>
+      </c>
       <c r="H146" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I146" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F147" t="s">
-        <v>16</v>
-      </c>
-      <c r="G147" t="s"/>
-      <c r="H147" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G147" t="s">
+        <v>183</v>
+      </c>
+      <c r="H147" t="s"/>
+      <c r="I147" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F148" t="s">
-        <v>16</v>
-      </c>
-      <c r="G148" t="s"/>
-      <c r="H148" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G148" t="s">
+        <v>28</v>
+      </c>
+      <c r="H148" t="s"/>
+      <c r="I148" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F149" t="s">
-        <v>16</v>
-      </c>
-      <c r="G149" t="s"/>
-      <c r="H149" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G149" t="s">
+        <v>183</v>
+      </c>
+      <c r="H149" t="s"/>
+      <c r="I149" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F150" t="s">
-        <v>16</v>
-      </c>
-      <c r="G150" t="s"/>
-      <c r="H150" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G150" t="s">
+        <v>28</v>
+      </c>
+      <c r="H150" t="s"/>
+      <c r="I150" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F151" t="s">
-        <v>16</v>
-      </c>
-      <c r="G151" t="s"/>
-      <c r="H151" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G151" t="s">
+        <v>44</v>
+      </c>
+      <c r="H151" t="s"/>
+      <c r="I151" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F152" t="s">
-        <v>16</v>
-      </c>
-      <c r="G152" t="s"/>
-      <c r="H152" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G152" t="s">
+        <v>183</v>
+      </c>
+      <c r="H152" t="s"/>
+      <c r="I152" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F153" t="s">
-        <v>16</v>
-      </c>
-      <c r="G153" t="s"/>
-      <c r="H153" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G153" t="s">
+        <v>44</v>
+      </c>
+      <c r="H153" t="s"/>
+      <c r="I153" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F154" t="s">
-        <v>16</v>
-      </c>
-      <c r="G154" t="s"/>
-      <c r="H154" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G154" t="s">
+        <v>183</v>
+      </c>
+      <c r="H154" t="s"/>
+      <c r="I154" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F155" t="s">
-        <v>16</v>
-      </c>
-      <c r="G155" t="s"/>
-      <c r="H155" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G155" t="s">
+        <v>44</v>
+      </c>
+      <c r="H155" t="s"/>
+      <c r="I155" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F156" t="s">
-        <v>16</v>
-      </c>
-      <c r="G156" t="s"/>
-      <c r="H156" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G156" t="s">
+        <v>183</v>
+      </c>
+      <c r="H156" t="s"/>
+      <c r="I156" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F157" t="s">
-        <v>16</v>
-      </c>
-      <c r="G157" t="s"/>
-      <c r="H157" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G157" t="s">
+        <v>28</v>
+      </c>
+      <c r="H157" t="s"/>
+      <c r="I157" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F158" t="s">
-        <v>16</v>
-      </c>
-      <c r="G158" t="s"/>
-      <c r="H158" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G158" t="s">
+        <v>183</v>
+      </c>
+      <c r="H158" t="s"/>
+      <c r="I158" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F159" t="s">
-        <v>16</v>
-      </c>
-      <c r="G159" t="s"/>
-      <c r="H159" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G159" t="s">
+        <v>28</v>
+      </c>
+      <c r="H159" t="s"/>
+      <c r="I159" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D160" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E160" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F160" t="s">
-        <v>16</v>
-      </c>
-      <c r="G160" t="s"/>
-      <c r="H160" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G160" t="s">
+        <v>183</v>
+      </c>
+      <c r="H160" t="s"/>
+      <c r="I160" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C161" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D161" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E161" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F161" t="s">
-        <v>11</v>
-      </c>
-      <c r="G161" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G161" t="s">
+        <v>13</v>
+      </c>
       <c r="H161" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I161" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C162" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D162" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E162" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F162" t="s">
-        <v>13</v>
-      </c>
-      <c r="G162" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G162" t="s">
+        <v>17</v>
+      </c>
       <c r="H162" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I162" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C163" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D163" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E163" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F163" t="s">
-        <v>11</v>
-      </c>
-      <c r="G163" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G163" t="s">
+        <v>13</v>
+      </c>
       <c r="H163" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I163" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C164" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D164" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E164" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F164" t="s">
-        <v>16</v>
-      </c>
-      <c r="G164" t="s"/>
-      <c r="H164" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G164" t="s">
+        <v>201</v>
+      </c>
+      <c r="H164" t="s"/>
+      <c r="I164" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C165" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D165" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E165" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F165" t="s">
-        <v>11</v>
-      </c>
-      <c r="G165" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G165" t="s">
+        <v>13</v>
+      </c>
       <c r="H165" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I165" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C166" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D166" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E166" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F166" t="s">
-        <v>16</v>
-      </c>
-      <c r="G166" t="s"/>
-      <c r="H166" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G166" t="s">
+        <v>204</v>
+      </c>
+      <c r="H166" t="s"/>
+      <c r="I166" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C167" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D167" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E167" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F167" t="s">
-        <v>11</v>
-      </c>
-      <c r="G167" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G167" t="s">
+        <v>13</v>
+      </c>
       <c r="H167" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I167" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C168" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D168" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E168" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F168" t="s">
-        <v>16</v>
-      </c>
-      <c r="G168" t="s"/>
-      <c r="H168" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G168" t="s">
+        <v>201</v>
+      </c>
+      <c r="H168" t="s"/>
+      <c r="I168" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C169" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D169" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E169" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F169" t="s">
-        <v>11</v>
-      </c>
-      <c r="G169" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G169" t="s">
+        <v>13</v>
+      </c>
       <c r="H169" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I169" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C170" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D170" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E170" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F170" t="s">
-        <v>16</v>
-      </c>
-      <c r="G170" t="s"/>
-      <c r="H170" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G170" t="s">
+        <v>204</v>
+      </c>
+      <c r="H170" t="s"/>
+      <c r="I170" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C171" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D171" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E171" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F171" t="s">
-        <v>11</v>
-      </c>
-      <c r="G171" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G171" t="s">
+        <v>13</v>
+      </c>
       <c r="H171" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I171" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C172" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D172" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E172" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F172" t="s">
-        <v>16</v>
-      </c>
-      <c r="G172" t="s"/>
-      <c r="H172" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G172" t="s">
+        <v>211</v>
+      </c>
+      <c r="H172" t="s"/>
+      <c r="I172" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C173" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D173" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E173" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F173" t="s">
-        <v>11</v>
-      </c>
-      <c r="G173" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G173" t="s">
+        <v>13</v>
+      </c>
       <c r="H173" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I173" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C174" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D174" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E174" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F174" t="s">
-        <v>16</v>
-      </c>
-      <c r="G174" t="s"/>
-      <c r="H174" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G174" t="s">
+        <v>201</v>
+      </c>
+      <c r="H174" t="s"/>
+      <c r="I174" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C175" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D175" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E175" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F175" t="s">
-        <v>11</v>
-      </c>
-      <c r="G175" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G175" t="s">
+        <v>13</v>
+      </c>
       <c r="H175" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I175" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C176" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D176" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E176" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F176" t="s">
-        <v>16</v>
-      </c>
-      <c r="G176" t="s"/>
-      <c r="H176" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G176" t="s">
+        <v>201</v>
+      </c>
+      <c r="H176" t="s"/>
+      <c r="I176" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9">
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C177" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D177" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E177" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F177" t="s">
-        <v>11</v>
-      </c>
-      <c r="G177" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G177" t="s">
+        <v>13</v>
+      </c>
       <c r="H177" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I177" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9">
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C178" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D178" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E178" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F178" t="s">
-        <v>16</v>
-      </c>
-      <c r="G178" t="s"/>
-      <c r="H178" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G178" t="s">
+        <v>201</v>
+      </c>
+      <c r="H178" t="s"/>
+      <c r="I178" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9">
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C179" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D179" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E179" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F179" t="s">
-        <v>11</v>
-      </c>
-      <c r="G179" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G179" t="s">
+        <v>13</v>
+      </c>
       <c r="H179" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I179" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9">
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C180" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D180" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E180" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F180" t="s">
-        <v>13</v>
-      </c>
-      <c r="G180" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G180" t="s">
+        <v>17</v>
+      </c>
       <c r="H180" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I180" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9">
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C181" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D181" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E181" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F181" t="s">
-        <v>16</v>
-      </c>
-      <c r="G181" t="s"/>
-      <c r="H181" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G181" t="s">
+        <v>201</v>
+      </c>
+      <c r="H181" t="s"/>
+      <c r="I181" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9">
       <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C182" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D182" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E182" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F182" t="s">
-        <v>13</v>
-      </c>
-      <c r="G182" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G182" t="s">
+        <v>17</v>
+      </c>
       <c r="H182" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I182" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9">
       <c r="A183" s="1" t="n">
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C183" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D183" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E183" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F183" t="s">
-        <v>16</v>
-      </c>
-      <c r="G183" t="s"/>
-      <c r="H183" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G183" t="s">
+        <v>204</v>
+      </c>
+      <c r="H183" t="s"/>
+      <c r="I183" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9">
       <c r="A184" s="1" t="n">
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C184" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D184" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E184" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F184" t="s">
-        <v>13</v>
-      </c>
-      <c r="G184" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G184" t="s">
+        <v>17</v>
+      </c>
       <c r="H184" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I184" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9">
       <c r="A185" s="1" t="n">
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C185" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D185" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E185" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F185" t="s">
-        <v>16</v>
-      </c>
-      <c r="G185" t="s"/>
-      <c r="H185" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G185" t="s">
+        <v>204</v>
+      </c>
+      <c r="H185" t="s"/>
+      <c r="I185" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9">
       <c r="A186" s="1" t="n">
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C186" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D186" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E186" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F186" t="s">
-        <v>16</v>
-      </c>
-      <c r="G186" t="s"/>
-      <c r="H186" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G186" t="s">
+        <v>201</v>
+      </c>
+      <c r="H186" t="s"/>
+      <c r="I186" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9">
       <c r="A187" s="1" t="n">
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C187" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D187" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E187" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F187" t="s">
-        <v>13</v>
-      </c>
-      <c r="G187" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G187" t="s">
+        <v>17</v>
+      </c>
       <c r="H187" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I187" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9">
       <c r="A188" s="1" t="n">
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C188" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D188" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E188" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F188" t="s">
-        <v>16</v>
-      </c>
-      <c r="G188" t="s"/>
-      <c r="H188" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G188" t="s">
+        <v>204</v>
+      </c>
+      <c r="H188" t="s"/>
+      <c r="I188" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9">
       <c r="A189" s="1" t="n">
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C189" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D189" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E189" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F189" t="s">
-        <v>13</v>
-      </c>
-      <c r="G189" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G189" t="s">
+        <v>17</v>
+      </c>
       <c r="H189" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I189" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9">
       <c r="A190" s="1" t="n">
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C190" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D190" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E190" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F190" t="s">
-        <v>16</v>
-      </c>
-      <c r="G190" t="s"/>
-      <c r="H190" t="s">
+        <v>21</v>
+      </c>
+      <c r="G190" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="191" spans="1:8">
+      <c r="H190" t="s"/>
+      <c r="I190" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9">
       <c r="A191" s="1" t="n">
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C191" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D191" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E191" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F191" t="s">
-        <v>13</v>
-      </c>
-      <c r="G191" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G191" t="s">
+        <v>17</v>
+      </c>
       <c r="H191" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I191" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9">
       <c r="A192" s="1" t="n">
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C192" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D192" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E192" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F192" t="s">
-        <v>11</v>
-      </c>
-      <c r="G192" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G192" t="s">
+        <v>13</v>
+      </c>
       <c r="H192" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I192" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9">
       <c r="A193" s="1" t="n">
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C193" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D193" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E193" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F193" t="s">
-        <v>45</v>
-      </c>
-      <c r="G193" t="s"/>
+        <v>54</v>
+      </c>
+      <c r="G193" t="s">
+        <v>55</v>
+      </c>
       <c r="H193" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8">
+        <v>56</v>
+      </c>
+      <c r="I193" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9">
       <c r="A194" s="1" t="n">
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C194" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D194" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E194" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F194" t="s">
-        <v>11</v>
-      </c>
-      <c r="G194" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G194" t="s">
+        <v>13</v>
+      </c>
       <c r="H194" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I194" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9">
       <c r="A195" s="1" t="n">
         <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C195" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D195" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E195" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F195" t="s">
-        <v>16</v>
-      </c>
-      <c r="G195" t="s"/>
-      <c r="H195" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G195" t="s">
+        <v>204</v>
+      </c>
+      <c r="H195" t="s"/>
+      <c r="I195" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9">
       <c r="A196" s="1" t="n">
         <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C196" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D196" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E196" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F196" t="s">
-        <v>11</v>
-      </c>
-      <c r="G196" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G196" t="s">
+        <v>13</v>
+      </c>
       <c r="H196" t="s">
-        <v>207</v>
+        <v>14</v>
+      </c>
+      <c r="I196" t="s">
+        <v>236</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg25101.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg25101.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="240">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>412436</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>Benishek</t>
   </si>
   <si>
@@ -65,6 +71,9 @@
   </si>
   <si>
     <t>412520</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Takano</t>
@@ -1073,7 +1082,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I196"/>
+  <dimension ref="A1:J196"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1081,7 +1090,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1106,5446 +1115,5820 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" t="s"/>
-      <c r="I5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G5" t="s"/>
+      <c r="H5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" t="s"/>
+      <c r="J5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" t="s"/>
-      <c r="I7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G7" t="s"/>
+      <c r="H7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" t="s"/>
+      <c r="J7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9" t="s"/>
-      <c r="I9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G9" t="s"/>
+      <c r="H9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I9" t="s"/>
+      <c r="J9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I11" t="s"/>
+      <c r="J11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
         <v>13</v>
       </c>
-      <c r="H10" t="s">
+      <c r="G12" t="s">
         <v>14</v>
       </c>
-      <c r="I10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" t="s">
-        <v>28</v>
-      </c>
-      <c r="H11" t="s"/>
-      <c r="I11" t="s">
+      <c r="H12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" t="s"/>
+      <c r="H13" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="I13" t="s"/>
+      <c r="J13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
         <v>13</v>
       </c>
-      <c r="H12" t="s">
+      <c r="G14" t="s">
         <v>14</v>
       </c>
-      <c r="I12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13" t="s">
-        <v>28</v>
-      </c>
-      <c r="H13" t="s"/>
-      <c r="I13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" t="s">
-        <v>13</v>
-      </c>
       <c r="H14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" t="s">
-        <v>28</v>
-      </c>
-      <c r="H15" t="s"/>
-      <c r="I15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G15" t="s"/>
+      <c r="H15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I15" t="s"/>
+      <c r="J15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>21</v>
-      </c>
-      <c r="G17" t="s">
-        <v>28</v>
-      </c>
-      <c r="H17" t="s"/>
-      <c r="I17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G17" t="s"/>
+      <c r="H17" t="s">
+        <v>31</v>
+      </c>
+      <c r="I17" t="s"/>
+      <c r="J17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>21</v>
-      </c>
-      <c r="G19" t="s">
-        <v>28</v>
-      </c>
-      <c r="H19" t="s"/>
-      <c r="I19" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G19" t="s"/>
+      <c r="H19" t="s">
+        <v>31</v>
+      </c>
+      <c r="I19" t="s"/>
+      <c r="J19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G21" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H21" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>21</v>
-      </c>
-      <c r="G22" t="s">
-        <v>25</v>
-      </c>
-      <c r="H22" t="s"/>
-      <c r="I22" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G22" t="s"/>
+      <c r="H22" t="s">
+        <v>28</v>
+      </c>
+      <c r="I22" t="s"/>
+      <c r="J22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G23" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H23" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I23" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>21</v>
-      </c>
-      <c r="G24" t="s">
-        <v>44</v>
-      </c>
-      <c r="H24" t="s"/>
-      <c r="I24" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G24" t="s"/>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s"/>
+      <c r="J24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G25" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H25" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I25" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>21</v>
-      </c>
-      <c r="G26" t="s">
-        <v>44</v>
-      </c>
-      <c r="H26" t="s"/>
-      <c r="I26" t="s">
+        <v>24</v>
+      </c>
+      <c r="G26" t="s"/>
+      <c r="H26" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="27" spans="1:9">
+      <c r="I26" t="s"/>
+      <c r="J26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G27" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H27" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I27" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>21</v>
-      </c>
-      <c r="G28" t="s">
-        <v>28</v>
-      </c>
-      <c r="H28" t="s"/>
-      <c r="I28" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G28" t="s"/>
+      <c r="H28" t="s">
+        <v>31</v>
+      </c>
+      <c r="I28" t="s"/>
+      <c r="J28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G29" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H29" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I29" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J29" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>21</v>
-      </c>
-      <c r="G30" t="s">
-        <v>28</v>
-      </c>
-      <c r="H30" t="s"/>
-      <c r="I30" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G30" t="s"/>
+      <c r="H30" t="s">
+        <v>31</v>
+      </c>
+      <c r="I30" t="s"/>
+      <c r="J30" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G31" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H31" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I31" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J31" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G32" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H32" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I32" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J32" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G33" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="H33" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I33" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>59</v>
+      </c>
+      <c r="J33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>21</v>
-      </c>
-      <c r="G34" t="s">
-        <v>28</v>
-      </c>
-      <c r="H34" t="s"/>
-      <c r="I34" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G34" t="s"/>
+      <c r="H34" t="s">
+        <v>31</v>
+      </c>
+      <c r="I34" t="s"/>
+      <c r="J34" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G35" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="H35" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I35" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="36" spans="1:9">
+      <c r="J35" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>21</v>
-      </c>
-      <c r="G36" t="s">
-        <v>28</v>
-      </c>
-      <c r="H36" t="s"/>
-      <c r="I36" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G36" t="s"/>
+      <c r="H36" t="s">
+        <v>31</v>
+      </c>
+      <c r="I36" t="s"/>
+      <c r="J36" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G37" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="H37" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I37" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>59</v>
+      </c>
+      <c r="J37" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>21</v>
-      </c>
-      <c r="G38" t="s">
-        <v>28</v>
-      </c>
-      <c r="H38" t="s"/>
-      <c r="I38" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G38" t="s"/>
+      <c r="H38" t="s">
+        <v>31</v>
+      </c>
+      <c r="I38" t="s"/>
+      <c r="J38" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G39" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="H39" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I39" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>59</v>
+      </c>
+      <c r="J39" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>21</v>
-      </c>
-      <c r="G40" t="s">
-        <v>28</v>
-      </c>
-      <c r="H40" t="s"/>
-      <c r="I40" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G40" t="s"/>
+      <c r="H40" t="s">
+        <v>31</v>
+      </c>
+      <c r="I40" t="s"/>
+      <c r="J40" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G41" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="H41" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I41" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>59</v>
+      </c>
+      <c r="J41" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>21</v>
-      </c>
-      <c r="G42" t="s">
-        <v>28</v>
-      </c>
-      <c r="H42" t="s"/>
-      <c r="I42" t="s">
+        <v>24</v>
+      </c>
+      <c r="G42" t="s"/>
+      <c r="H42" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="43" spans="1:9">
+      <c r="I42" t="s"/>
+      <c r="J42" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G43" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="H43" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I43" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>59</v>
+      </c>
+      <c r="J43" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>21</v>
-      </c>
-      <c r="G44" t="s">
-        <v>28</v>
-      </c>
-      <c r="H44" t="s"/>
-      <c r="I44" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G44" t="s"/>
+      <c r="H44" t="s">
+        <v>31</v>
+      </c>
+      <c r="I44" t="s"/>
+      <c r="J44" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G45" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="H45" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I45" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>59</v>
+      </c>
+      <c r="J45" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>21</v>
-      </c>
-      <c r="G46" t="s">
-        <v>28</v>
-      </c>
-      <c r="H46" t="s"/>
-      <c r="I46" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G46" t="s"/>
+      <c r="H46" t="s">
+        <v>31</v>
+      </c>
+      <c r="I46" t="s"/>
+      <c r="J46" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>21</v>
-      </c>
-      <c r="G47" t="s">
-        <v>69</v>
-      </c>
-      <c r="H47" t="s"/>
-      <c r="I47" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G47" t="s"/>
+      <c r="H47" t="s">
+        <v>72</v>
+      </c>
+      <c r="I47" t="s"/>
+      <c r="J47" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G48" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H48" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I48" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J48" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>21</v>
-      </c>
-      <c r="G49" t="s">
-        <v>72</v>
-      </c>
-      <c r="H49" t="s"/>
-      <c r="I49" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G49" t="s"/>
+      <c r="H49" t="s">
+        <v>75</v>
+      </c>
+      <c r="I49" t="s"/>
+      <c r="J49" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>21</v>
-      </c>
-      <c r="G50" t="s">
-        <v>28</v>
-      </c>
-      <c r="H50" t="s"/>
-      <c r="I50" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G50" t="s"/>
+      <c r="H50" t="s">
+        <v>31</v>
+      </c>
+      <c r="I50" t="s"/>
+      <c r="J50" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>21</v>
-      </c>
-      <c r="G51" t="s">
-        <v>72</v>
-      </c>
-      <c r="H51" t="s"/>
-      <c r="I51" t="s">
+        <v>24</v>
+      </c>
+      <c r="G51" t="s"/>
+      <c r="H51" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="52" spans="1:9">
+      <c r="I51" t="s"/>
+      <c r="J51" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>21</v>
-      </c>
-      <c r="G52" t="s">
-        <v>28</v>
-      </c>
-      <c r="H52" t="s"/>
-      <c r="I52" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G52" t="s"/>
+      <c r="H52" t="s">
+        <v>31</v>
+      </c>
+      <c r="I52" t="s"/>
+      <c r="J52" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>21</v>
-      </c>
-      <c r="G53" t="s">
-        <v>72</v>
-      </c>
-      <c r="H53" t="s"/>
-      <c r="I53" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G53" t="s"/>
+      <c r="H53" t="s">
+        <v>75</v>
+      </c>
+      <c r="I53" t="s"/>
+      <c r="J53" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>21</v>
-      </c>
-      <c r="G54" t="s">
-        <v>22</v>
-      </c>
-      <c r="H54" t="s"/>
-      <c r="I54" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G54" t="s"/>
+      <c r="H54" t="s">
+        <v>25</v>
+      </c>
+      <c r="I54" t="s"/>
+      <c r="J54" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>21</v>
-      </c>
-      <c r="G55" t="s">
-        <v>72</v>
-      </c>
-      <c r="H55" t="s"/>
-      <c r="I55" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G55" t="s"/>
+      <c r="H55" t="s">
+        <v>75</v>
+      </c>
+      <c r="I55" t="s"/>
+      <c r="J55" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>21</v>
-      </c>
-      <c r="G56" t="s">
-        <v>28</v>
-      </c>
-      <c r="H56" t="s"/>
-      <c r="I56" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G56" t="s"/>
+      <c r="H56" t="s">
+        <v>31</v>
+      </c>
+      <c r="I56" t="s"/>
+      <c r="J56" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>21</v>
-      </c>
-      <c r="G57" t="s">
-        <v>72</v>
-      </c>
-      <c r="H57" t="s"/>
-      <c r="I57" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G57" t="s"/>
+      <c r="H57" t="s">
+        <v>75</v>
+      </c>
+      <c r="I57" t="s"/>
+      <c r="J57" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>21</v>
-      </c>
-      <c r="G58" t="s">
-        <v>28</v>
-      </c>
-      <c r="H58" t="s"/>
-      <c r="I58" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G58" t="s"/>
+      <c r="H58" t="s">
+        <v>31</v>
+      </c>
+      <c r="I58" t="s"/>
+      <c r="J58" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>21</v>
-      </c>
-      <c r="G59" t="s">
-        <v>72</v>
-      </c>
-      <c r="H59" t="s"/>
-      <c r="I59" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G59" t="s"/>
+      <c r="H59" t="s">
+        <v>75</v>
+      </c>
+      <c r="I59" t="s"/>
+      <c r="J59" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>21</v>
-      </c>
-      <c r="G60" t="s">
-        <v>25</v>
-      </c>
-      <c r="H60" t="s"/>
-      <c r="I60" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G60" t="s"/>
+      <c r="H60" t="s">
+        <v>28</v>
+      </c>
+      <c r="I60" t="s"/>
+      <c r="J60" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>21</v>
-      </c>
-      <c r="G61" t="s">
-        <v>72</v>
-      </c>
-      <c r="H61" t="s"/>
-      <c r="I61" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G61" t="s"/>
+      <c r="H61" t="s">
+        <v>75</v>
+      </c>
+      <c r="I61" t="s"/>
+      <c r="J61" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G62" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H62" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I62" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J62" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G63" t="s">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="H63" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I63" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>92</v>
+      </c>
+      <c r="J63" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>21</v>
-      </c>
-      <c r="G64" t="s">
-        <v>28</v>
-      </c>
-      <c r="H64" t="s"/>
-      <c r="I64" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G64" t="s"/>
+      <c r="H64" t="s">
+        <v>31</v>
+      </c>
+      <c r="I64" t="s"/>
+      <c r="J64" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G65" t="s">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="H65" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I65" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="66" spans="1:9">
+      <c r="J65" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>21</v>
-      </c>
-      <c r="G66" t="s">
-        <v>28</v>
-      </c>
-      <c r="H66" t="s"/>
-      <c r="I66" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G66" t="s"/>
+      <c r="H66" t="s">
+        <v>31</v>
+      </c>
+      <c r="I66" t="s"/>
+      <c r="J66" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>21</v>
-      </c>
-      <c r="G67" t="s">
-        <v>93</v>
-      </c>
-      <c r="H67" t="s"/>
-      <c r="I67" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G67" t="s"/>
+      <c r="H67" t="s">
+        <v>96</v>
+      </c>
+      <c r="I67" t="s"/>
+      <c r="J67" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>21</v>
-      </c>
-      <c r="G68" t="s">
-        <v>28</v>
-      </c>
-      <c r="H68" t="s"/>
-      <c r="I68" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G68" t="s"/>
+      <c r="H68" t="s">
+        <v>31</v>
+      </c>
+      <c r="I68" t="s"/>
+      <c r="J68" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G69" t="s">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="H69" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I69" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>92</v>
+      </c>
+      <c r="J69" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>21</v>
-      </c>
-      <c r="G70" t="s">
-        <v>28</v>
-      </c>
-      <c r="H70" t="s"/>
-      <c r="I70" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G70" t="s"/>
+      <c r="H70" t="s">
+        <v>31</v>
+      </c>
+      <c r="I70" t="s"/>
+      <c r="J70" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G71" t="s">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="H71" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I71" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>92</v>
+      </c>
+      <c r="J71" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>21</v>
-      </c>
-      <c r="G72" t="s">
-        <v>28</v>
-      </c>
-      <c r="H72" t="s"/>
-      <c r="I72" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G72" t="s"/>
+      <c r="H72" t="s">
+        <v>31</v>
+      </c>
+      <c r="I72" t="s"/>
+      <c r="J72" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G73" t="s">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="H73" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I73" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>92</v>
+      </c>
+      <c r="J73" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>21</v>
-      </c>
-      <c r="G74" t="s">
-        <v>28</v>
-      </c>
-      <c r="H74" t="s"/>
-      <c r="I74" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G74" t="s"/>
+      <c r="H74" t="s">
+        <v>31</v>
+      </c>
+      <c r="I74" t="s"/>
+      <c r="J74" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G75" t="s">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="H75" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I75" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>92</v>
+      </c>
+      <c r="J75" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G76" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H76" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I76" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J76" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="G77" t="s">
-        <v>105</v>
+        <v>19</v>
       </c>
       <c r="H77" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="I77" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>109</v>
+      </c>
+      <c r="J77" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>21</v>
-      </c>
-      <c r="G78" t="s">
-        <v>28</v>
-      </c>
-      <c r="H78" t="s"/>
-      <c r="I78" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G78" t="s"/>
+      <c r="H78" t="s">
+        <v>31</v>
+      </c>
+      <c r="I78" t="s"/>
+      <c r="J78" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="G79" t="s">
-        <v>105</v>
+        <v>19</v>
       </c>
       <c r="H79" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="I79" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="80" spans="1:9">
+      <c r="J79" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>21</v>
-      </c>
-      <c r="G80" t="s">
-        <v>28</v>
-      </c>
-      <c r="H80" t="s"/>
-      <c r="I80" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G80" t="s"/>
+      <c r="H80" t="s">
+        <v>31</v>
+      </c>
+      <c r="I80" t="s"/>
+      <c r="J80" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="G81" t="s">
-        <v>105</v>
+        <v>19</v>
       </c>
       <c r="H81" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="I81" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>109</v>
+      </c>
+      <c r="J81" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>21</v>
-      </c>
-      <c r="G82" t="s">
-        <v>28</v>
-      </c>
-      <c r="H82" t="s"/>
-      <c r="I82" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G82" t="s"/>
+      <c r="H82" t="s">
+        <v>31</v>
+      </c>
+      <c r="I82" t="s"/>
+      <c r="J82" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>21</v>
-      </c>
-      <c r="G83" t="s">
-        <v>113</v>
-      </c>
-      <c r="H83" t="s"/>
-      <c r="I83" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G83" t="s"/>
+      <c r="H83" t="s">
+        <v>116</v>
+      </c>
+      <c r="I83" t="s"/>
+      <c r="J83" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>21</v>
-      </c>
-      <c r="G84" t="s">
-        <v>28</v>
-      </c>
-      <c r="H84" t="s"/>
-      <c r="I84" t="s">
+        <v>24</v>
+      </c>
+      <c r="G84" t="s"/>
+      <c r="H84" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="85" spans="1:9">
+      <c r="I84" t="s"/>
+      <c r="J84" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="G85" t="s">
-        <v>105</v>
+        <v>19</v>
       </c>
       <c r="H85" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="I85" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>109</v>
+      </c>
+      <c r="J85" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>21</v>
-      </c>
-      <c r="G86" t="s">
-        <v>28</v>
-      </c>
-      <c r="H86" t="s"/>
-      <c r="I86" t="s">
+        <v>24</v>
+      </c>
+      <c r="G86" t="s"/>
+      <c r="H86" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="87" spans="1:9">
+      <c r="I86" t="s"/>
+      <c r="J86" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="G87" t="s">
-        <v>105</v>
+        <v>19</v>
       </c>
       <c r="H87" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="I87" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>109</v>
+      </c>
+      <c r="J87" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>21</v>
-      </c>
-      <c r="G88" t="s">
-        <v>28</v>
-      </c>
-      <c r="H88" t="s"/>
-      <c r="I88" t="s">
+        <v>24</v>
+      </c>
+      <c r="G88" t="s"/>
+      <c r="H88" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="89" spans="1:9">
+      <c r="I88" t="s"/>
+      <c r="J88" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>21</v>
-      </c>
-      <c r="G89" t="s">
-        <v>113</v>
-      </c>
-      <c r="H89" t="s"/>
-      <c r="I89" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G89" t="s"/>
+      <c r="H89" t="s">
+        <v>116</v>
+      </c>
+      <c r="I89" t="s"/>
+      <c r="J89" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>21</v>
-      </c>
-      <c r="G90" t="s">
-        <v>28</v>
-      </c>
-      <c r="H90" t="s"/>
-      <c r="I90" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G90" t="s"/>
+      <c r="H90" t="s">
+        <v>31</v>
+      </c>
+      <c r="I90" t="s"/>
+      <c r="J90" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="G91" t="s">
-        <v>105</v>
+        <v>19</v>
       </c>
       <c r="H91" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="I91" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>109</v>
+      </c>
+      <c r="J91" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>21</v>
-      </c>
-      <c r="G92" t="s">
-        <v>28</v>
-      </c>
-      <c r="H92" t="s"/>
-      <c r="I92" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G92" t="s"/>
+      <c r="H92" t="s">
+        <v>31</v>
+      </c>
+      <c r="I92" t="s"/>
+      <c r="J92" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="G93" t="s">
-        <v>105</v>
+        <v>19</v>
       </c>
       <c r="H93" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="I93" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>109</v>
+      </c>
+      <c r="J93" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>21</v>
-      </c>
-      <c r="G94" t="s">
-        <v>28</v>
-      </c>
-      <c r="H94" t="s"/>
-      <c r="I94" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G94" t="s"/>
+      <c r="H94" t="s">
+        <v>31</v>
+      </c>
+      <c r="I94" t="s"/>
+      <c r="J94" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>21</v>
-      </c>
-      <c r="G95" t="s">
-        <v>44</v>
-      </c>
-      <c r="H95" t="s"/>
-      <c r="I95" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G95" t="s"/>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s"/>
+      <c r="J95" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="G96" t="s">
-        <v>105</v>
+        <v>19</v>
       </c>
       <c r="H96" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="I96" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>109</v>
+      </c>
+      <c r="J96" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>21</v>
-      </c>
-      <c r="G97" t="s">
-        <v>44</v>
-      </c>
-      <c r="H97" t="s"/>
-      <c r="I97" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G97" t="s"/>
+      <c r="H97" t="s">
+        <v>47</v>
+      </c>
+      <c r="I97" t="s"/>
+      <c r="J97" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="G98" t="s">
-        <v>105</v>
+        <v>19</v>
       </c>
       <c r="H98" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="I98" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>109</v>
+      </c>
+      <c r="J98" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G99" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H99" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I99" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J99" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G100" t="s">
-        <v>129</v>
+        <v>19</v>
       </c>
       <c r="H100" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="I100" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>133</v>
+      </c>
+      <c r="J100" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>21</v>
-      </c>
-      <c r="G101" t="s">
-        <v>28</v>
-      </c>
-      <c r="H101" t="s"/>
-      <c r="I101" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G101" t="s"/>
+      <c r="H101" t="s">
+        <v>31</v>
+      </c>
+      <c r="I101" t="s"/>
+      <c r="J101" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G102" t="s">
-        <v>129</v>
+        <v>19</v>
       </c>
       <c r="H102" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="I102" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="103" spans="1:9">
+      <c r="J102" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>21</v>
-      </c>
-      <c r="G103" t="s">
-        <v>28</v>
-      </c>
-      <c r="H103" t="s"/>
-      <c r="I103" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G103" t="s"/>
+      <c r="H103" t="s">
+        <v>31</v>
+      </c>
+      <c r="I103" t="s"/>
+      <c r="J103" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G104" t="s">
-        <v>129</v>
+        <v>19</v>
       </c>
       <c r="H104" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="I104" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>133</v>
+      </c>
+      <c r="J104" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>21</v>
-      </c>
-      <c r="G105" t="s">
-        <v>28</v>
-      </c>
-      <c r="H105" t="s"/>
-      <c r="I105" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G105" t="s"/>
+      <c r="H105" t="s">
+        <v>31</v>
+      </c>
+      <c r="I105" t="s"/>
+      <c r="J105" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G106" t="s">
-        <v>129</v>
+        <v>19</v>
       </c>
       <c r="H106" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="I106" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>133</v>
+      </c>
+      <c r="J106" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F107" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G107" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H107" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I107" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J107" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F108" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G108" t="s">
-        <v>140</v>
+        <v>19</v>
       </c>
       <c r="H108" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I108" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>144</v>
+      </c>
+      <c r="J108" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F109" t="s">
-        <v>21</v>
-      </c>
-      <c r="G109" t="s">
-        <v>28</v>
-      </c>
-      <c r="H109" t="s"/>
-      <c r="I109" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G109" t="s"/>
+      <c r="H109" t="s">
+        <v>31</v>
+      </c>
+      <c r="I109" t="s"/>
+      <c r="J109" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F110" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G110" t="s">
-        <v>140</v>
+        <v>19</v>
       </c>
       <c r="H110" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I110" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="111" spans="1:9">
+      <c r="J110" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E111" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F111" t="s">
-        <v>21</v>
-      </c>
-      <c r="G111" t="s">
-        <v>28</v>
-      </c>
-      <c r="H111" t="s"/>
-      <c r="I111" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G111" t="s"/>
+      <c r="H111" t="s">
+        <v>31</v>
+      </c>
+      <c r="I111" t="s"/>
+      <c r="J111" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E112" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F112" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G112" t="s">
-        <v>140</v>
+        <v>19</v>
       </c>
       <c r="H112" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I112" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>144</v>
+      </c>
+      <c r="J112" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E113" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F113" t="s">
-        <v>21</v>
-      </c>
-      <c r="G113" t="s">
-        <v>28</v>
-      </c>
-      <c r="H113" t="s"/>
-      <c r="I113" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G113" t="s"/>
+      <c r="H113" t="s">
+        <v>31</v>
+      </c>
+      <c r="I113" t="s"/>
+      <c r="J113" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E114" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F114" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G114" t="s">
-        <v>140</v>
+        <v>19</v>
       </c>
       <c r="H114" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I114" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>144</v>
+      </c>
+      <c r="J114" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E115" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F115" t="s">
-        <v>21</v>
-      </c>
-      <c r="G115" t="s">
-        <v>28</v>
-      </c>
-      <c r="H115" t="s"/>
-      <c r="I115" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G115" t="s"/>
+      <c r="H115" t="s">
+        <v>31</v>
+      </c>
+      <c r="I115" t="s"/>
+      <c r="J115" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E116" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F116" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G116" t="s">
-        <v>140</v>
+        <v>19</v>
       </c>
       <c r="H116" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I116" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>144</v>
+      </c>
+      <c r="J116" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E117" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F117" t="s">
-        <v>21</v>
-      </c>
-      <c r="G117" t="s">
-        <v>28</v>
-      </c>
-      <c r="H117" t="s"/>
-      <c r="I117" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G117" t="s"/>
+      <c r="H117" t="s">
+        <v>31</v>
+      </c>
+      <c r="I117" t="s"/>
+      <c r="J117" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E118" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F118" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G118" t="s">
-        <v>140</v>
+        <v>19</v>
       </c>
       <c r="H118" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I118" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>144</v>
+      </c>
+      <c r="J118" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E119" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F119" t="s">
-        <v>21</v>
-      </c>
-      <c r="G119" t="s">
-        <v>28</v>
-      </c>
-      <c r="H119" t="s"/>
-      <c r="I119" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G119" t="s"/>
+      <c r="H119" t="s">
+        <v>31</v>
+      </c>
+      <c r="I119" t="s"/>
+      <c r="J119" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E120" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F120" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G120" t="s">
-        <v>140</v>
+        <v>19</v>
       </c>
       <c r="H120" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I120" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+        <v>144</v>
+      </c>
+      <c r="J120" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E121" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F121" t="s">
-        <v>21</v>
-      </c>
-      <c r="G121" t="s">
-        <v>28</v>
-      </c>
-      <c r="H121" t="s"/>
-      <c r="I121" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G121" t="s"/>
+      <c r="H121" t="s">
+        <v>31</v>
+      </c>
+      <c r="I121" t="s"/>
+      <c r="J121" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E122" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F122" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G122" t="s">
-        <v>140</v>
+        <v>19</v>
       </c>
       <c r="H122" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I122" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+        <v>144</v>
+      </c>
+      <c r="J122" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E123" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F123" t="s">
-        <v>21</v>
-      </c>
-      <c r="G123" t="s">
-        <v>28</v>
-      </c>
-      <c r="H123" t="s"/>
-      <c r="I123" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G123" t="s"/>
+      <c r="H123" t="s">
+        <v>31</v>
+      </c>
+      <c r="I123" t="s"/>
+      <c r="J123" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E124" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F124" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G124" t="s">
-        <v>140</v>
+        <v>19</v>
       </c>
       <c r="H124" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I124" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+        <v>144</v>
+      </c>
+      <c r="J124" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E125" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F125" t="s">
-        <v>21</v>
-      </c>
-      <c r="G125" t="s">
-        <v>28</v>
-      </c>
-      <c r="H125" t="s"/>
-      <c r="I125" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G125" t="s"/>
+      <c r="H125" t="s">
+        <v>31</v>
+      </c>
+      <c r="I125" t="s"/>
+      <c r="J125" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E126" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F126" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G126" t="s">
-        <v>140</v>
+        <v>19</v>
       </c>
       <c r="H126" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I126" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+        <v>144</v>
+      </c>
+      <c r="J126" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E127" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F127" t="s">
-        <v>21</v>
-      </c>
-      <c r="G127" t="s">
-        <v>28</v>
-      </c>
-      <c r="H127" t="s"/>
-      <c r="I127" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G127" t="s"/>
+      <c r="H127" t="s">
+        <v>31</v>
+      </c>
+      <c r="I127" t="s"/>
+      <c r="J127" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E128" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F128" t="s">
-        <v>21</v>
-      </c>
-      <c r="G128" t="s">
-        <v>44</v>
-      </c>
-      <c r="H128" t="s"/>
-      <c r="I128" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G128" t="s"/>
+      <c r="H128" t="s">
+        <v>47</v>
+      </c>
+      <c r="I128" t="s"/>
+      <c r="J128" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E129" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F129" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G129" t="s">
-        <v>140</v>
+        <v>19</v>
       </c>
       <c r="H129" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I129" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
+        <v>144</v>
+      </c>
+      <c r="J129" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E130" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F130" t="s">
-        <v>21</v>
-      </c>
-      <c r="G130" t="s">
-        <v>44</v>
-      </c>
-      <c r="H130" t="s"/>
-      <c r="I130" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G130" t="s"/>
+      <c r="H130" t="s">
+        <v>47</v>
+      </c>
+      <c r="I130" t="s"/>
+      <c r="J130" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E131" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F131" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G131" t="s">
-        <v>140</v>
+        <v>19</v>
       </c>
       <c r="H131" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I131" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9">
+        <v>144</v>
+      </c>
+      <c r="J131" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E132" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F132" t="s">
-        <v>21</v>
-      </c>
-      <c r="G132" t="s">
-        <v>166</v>
-      </c>
-      <c r="H132" t="s"/>
-      <c r="I132" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G132" t="s"/>
+      <c r="H132" t="s">
+        <v>169</v>
+      </c>
+      <c r="I132" t="s"/>
+      <c r="J132" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E133" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F133" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G133" t="s">
-        <v>140</v>
+        <v>19</v>
       </c>
       <c r="H133" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I133" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
+        <v>144</v>
+      </c>
+      <c r="J133" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E134" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F134" t="s">
-        <v>21</v>
-      </c>
-      <c r="G134" t="s">
-        <v>44</v>
-      </c>
-      <c r="H134" t="s"/>
-      <c r="I134" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G134" t="s"/>
+      <c r="H134" t="s">
+        <v>47</v>
+      </c>
+      <c r="I134" t="s"/>
+      <c r="J134" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E135" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F135" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G135" t="s">
-        <v>140</v>
+        <v>19</v>
       </c>
       <c r="H135" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I135" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
+        <v>144</v>
+      </c>
+      <c r="J135" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E136" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F136" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G136" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H136" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I136" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J136" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E137" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F137" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G137" t="s">
-        <v>140</v>
+        <v>19</v>
       </c>
       <c r="H137" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I137" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9">
+        <v>144</v>
+      </c>
+      <c r="J137" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E138" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F138" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G138" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H138" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I138" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J138" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E139" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F139" t="s">
-        <v>21</v>
-      </c>
-      <c r="G139" t="s">
-        <v>174</v>
-      </c>
-      <c r="H139" t="s"/>
-      <c r="I139" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G139" t="s"/>
+      <c r="H139" t="s">
+        <v>177</v>
+      </c>
+      <c r="I139" t="s"/>
+      <c r="J139" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E140" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F140" t="s">
-        <v>21</v>
-      </c>
-      <c r="G140" t="s">
-        <v>28</v>
-      </c>
-      <c r="H140" t="s"/>
-      <c r="I140" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G140" t="s"/>
+      <c r="H140" t="s">
+        <v>31</v>
+      </c>
+      <c r="I140" t="s"/>
+      <c r="J140" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E141" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F141" t="s">
-        <v>21</v>
-      </c>
-      <c r="G141" t="s">
-        <v>174</v>
-      </c>
-      <c r="H141" t="s"/>
-      <c r="I141" t="s">
+        <v>24</v>
+      </c>
+      <c r="G141" t="s"/>
+      <c r="H141" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="142" spans="1:9">
+      <c r="I141" t="s"/>
+      <c r="J141" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E142" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F142" t="s">
-        <v>21</v>
-      </c>
-      <c r="G142" t="s">
-        <v>28</v>
-      </c>
-      <c r="H142" t="s"/>
-      <c r="I142" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G142" t="s"/>
+      <c r="H142" t="s">
+        <v>31</v>
+      </c>
+      <c r="I142" t="s"/>
+      <c r="J142" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E143" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F143" t="s">
-        <v>21</v>
-      </c>
-      <c r="G143" t="s">
-        <v>174</v>
-      </c>
-      <c r="H143" t="s"/>
-      <c r="I143" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G143" t="s"/>
+      <c r="H143" t="s">
+        <v>177</v>
+      </c>
+      <c r="I143" t="s"/>
+      <c r="J143" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E144" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F144" t="s">
-        <v>21</v>
-      </c>
-      <c r="G144" t="s">
-        <v>28</v>
-      </c>
-      <c r="H144" t="s"/>
-      <c r="I144" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G144" t="s"/>
+      <c r="H144" t="s">
+        <v>31</v>
+      </c>
+      <c r="I144" t="s"/>
+      <c r="J144" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E145" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F145" t="s">
-        <v>21</v>
-      </c>
-      <c r="G145" t="s">
-        <v>174</v>
-      </c>
-      <c r="H145" t="s"/>
-      <c r="I145" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G145" t="s"/>
+      <c r="H145" t="s">
+        <v>177</v>
+      </c>
+      <c r="I145" t="s"/>
+      <c r="J145" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E146" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F146" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G146" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H146" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I146" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J146" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E147" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F147" t="s">
-        <v>21</v>
-      </c>
-      <c r="G147" t="s">
-        <v>183</v>
-      </c>
-      <c r="H147" t="s"/>
-      <c r="I147" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G147" t="s"/>
+      <c r="H147" t="s">
+        <v>186</v>
+      </c>
+      <c r="I147" t="s"/>
+      <c r="J147" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E148" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F148" t="s">
-        <v>21</v>
-      </c>
-      <c r="G148" t="s">
-        <v>28</v>
-      </c>
-      <c r="H148" t="s"/>
-      <c r="I148" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G148" t="s"/>
+      <c r="H148" t="s">
+        <v>31</v>
+      </c>
+      <c r="I148" t="s"/>
+      <c r="J148" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E149" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F149" t="s">
-        <v>21</v>
-      </c>
-      <c r="G149" t="s">
-        <v>183</v>
-      </c>
-      <c r="H149" t="s"/>
-      <c r="I149" t="s">
+        <v>24</v>
+      </c>
+      <c r="G149" t="s"/>
+      <c r="H149" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="150" spans="1:9">
+      <c r="I149" t="s"/>
+      <c r="J149" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E150" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F150" t="s">
-        <v>21</v>
-      </c>
-      <c r="G150" t="s">
-        <v>28</v>
-      </c>
-      <c r="H150" t="s"/>
-      <c r="I150" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G150" t="s"/>
+      <c r="H150" t="s">
+        <v>31</v>
+      </c>
+      <c r="I150" t="s"/>
+      <c r="J150" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E151" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F151" t="s">
-        <v>21</v>
-      </c>
-      <c r="G151" t="s">
-        <v>44</v>
-      </c>
-      <c r="H151" t="s"/>
-      <c r="I151" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G151" t="s"/>
+      <c r="H151" t="s">
+        <v>47</v>
+      </c>
+      <c r="I151" t="s"/>
+      <c r="J151" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E152" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F152" t="s">
-        <v>21</v>
-      </c>
-      <c r="G152" t="s">
-        <v>183</v>
-      </c>
-      <c r="H152" t="s"/>
-      <c r="I152" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G152" t="s"/>
+      <c r="H152" t="s">
+        <v>186</v>
+      </c>
+      <c r="I152" t="s"/>
+      <c r="J152" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E153" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F153" t="s">
-        <v>21</v>
-      </c>
-      <c r="G153" t="s">
-        <v>44</v>
-      </c>
-      <c r="H153" t="s"/>
-      <c r="I153" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G153" t="s"/>
+      <c r="H153" t="s">
+        <v>47</v>
+      </c>
+      <c r="I153" t="s"/>
+      <c r="J153" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E154" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F154" t="s">
-        <v>21</v>
-      </c>
-      <c r="G154" t="s">
-        <v>183</v>
-      </c>
-      <c r="H154" t="s"/>
-      <c r="I154" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G154" t="s"/>
+      <c r="H154" t="s">
+        <v>186</v>
+      </c>
+      <c r="I154" t="s"/>
+      <c r="J154" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E155" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F155" t="s">
-        <v>21</v>
-      </c>
-      <c r="G155" t="s">
-        <v>44</v>
-      </c>
-      <c r="H155" t="s"/>
-      <c r="I155" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G155" t="s"/>
+      <c r="H155" t="s">
+        <v>47</v>
+      </c>
+      <c r="I155" t="s"/>
+      <c r="J155" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E156" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F156" t="s">
-        <v>21</v>
-      </c>
-      <c r="G156" t="s">
-        <v>183</v>
-      </c>
-      <c r="H156" t="s"/>
-      <c r="I156" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G156" t="s"/>
+      <c r="H156" t="s">
+        <v>186</v>
+      </c>
+      <c r="I156" t="s"/>
+      <c r="J156" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E157" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F157" t="s">
-        <v>21</v>
-      </c>
-      <c r="G157" t="s">
-        <v>28</v>
-      </c>
-      <c r="H157" t="s"/>
-      <c r="I157" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G157" t="s"/>
+      <c r="H157" t="s">
+        <v>31</v>
+      </c>
+      <c r="I157" t="s"/>
+      <c r="J157" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E158" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F158" t="s">
-        <v>21</v>
-      </c>
-      <c r="G158" t="s">
-        <v>183</v>
-      </c>
-      <c r="H158" t="s"/>
-      <c r="I158" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G158" t="s"/>
+      <c r="H158" t="s">
+        <v>186</v>
+      </c>
+      <c r="I158" t="s"/>
+      <c r="J158" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E159" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F159" t="s">
-        <v>21</v>
-      </c>
-      <c r="G159" t="s">
-        <v>28</v>
-      </c>
-      <c r="H159" t="s"/>
-      <c r="I159" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G159" t="s"/>
+      <c r="H159" t="s">
+        <v>31</v>
+      </c>
+      <c r="I159" t="s"/>
+      <c r="J159" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C160" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D160" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E160" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F160" t="s">
-        <v>21</v>
-      </c>
-      <c r="G160" t="s">
-        <v>183</v>
-      </c>
-      <c r="H160" t="s"/>
-      <c r="I160" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G160" t="s"/>
+      <c r="H160" t="s">
+        <v>186</v>
+      </c>
+      <c r="I160" t="s"/>
+      <c r="J160" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C161" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D161" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E161" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F161" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G161" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H161" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I161" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J161" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C162" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D162" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E162" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F162" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G162" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H162" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I162" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J162" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C163" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D163" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E163" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F163" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G163" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H163" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I163" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J163" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C164" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D164" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E164" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F164" t="s">
-        <v>21</v>
-      </c>
-      <c r="G164" t="s">
-        <v>201</v>
-      </c>
-      <c r="H164" t="s"/>
-      <c r="I164" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G164" t="s"/>
+      <c r="H164" t="s">
+        <v>204</v>
+      </c>
+      <c r="I164" t="s"/>
+      <c r="J164" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C165" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D165" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E165" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F165" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G165" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H165" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I165" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J165" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C166" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D166" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E166" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F166" t="s">
-        <v>21</v>
-      </c>
-      <c r="G166" t="s">
-        <v>204</v>
-      </c>
-      <c r="H166" t="s"/>
-      <c r="I166" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G166" t="s"/>
+      <c r="H166" t="s">
+        <v>207</v>
+      </c>
+      <c r="I166" t="s"/>
+      <c r="J166" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C167" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D167" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E167" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F167" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G167" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H167" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I167" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J167" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C168" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D168" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E168" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F168" t="s">
-        <v>21</v>
-      </c>
-      <c r="G168" t="s">
-        <v>201</v>
-      </c>
-      <c r="H168" t="s"/>
-      <c r="I168" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G168" t="s"/>
+      <c r="H168" t="s">
+        <v>204</v>
+      </c>
+      <c r="I168" t="s"/>
+      <c r="J168" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C169" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D169" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E169" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F169" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G169" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H169" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I169" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J169" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C170" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D170" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E170" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F170" t="s">
-        <v>21</v>
-      </c>
-      <c r="G170" t="s">
-        <v>204</v>
-      </c>
-      <c r="H170" t="s"/>
-      <c r="I170" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G170" t="s"/>
+      <c r="H170" t="s">
+        <v>207</v>
+      </c>
+      <c r="I170" t="s"/>
+      <c r="J170" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C171" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D171" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E171" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F171" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G171" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H171" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I171" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J171" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C172" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D172" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E172" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F172" t="s">
-        <v>21</v>
-      </c>
-      <c r="G172" t="s">
-        <v>211</v>
-      </c>
-      <c r="H172" t="s"/>
-      <c r="I172" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G172" t="s"/>
+      <c r="H172" t="s">
+        <v>214</v>
+      </c>
+      <c r="I172" t="s"/>
+      <c r="J172" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C173" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D173" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E173" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F173" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G173" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H173" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I173" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J173" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C174" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D174" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E174" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F174" t="s">
-        <v>21</v>
-      </c>
-      <c r="G174" t="s">
-        <v>201</v>
-      </c>
-      <c r="H174" t="s"/>
-      <c r="I174" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G174" t="s"/>
+      <c r="H174" t="s">
+        <v>204</v>
+      </c>
+      <c r="I174" t="s"/>
+      <c r="J174" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C175" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D175" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E175" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F175" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G175" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H175" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I175" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J175" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C176" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D176" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E176" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F176" t="s">
-        <v>21</v>
-      </c>
-      <c r="G176" t="s">
-        <v>201</v>
-      </c>
-      <c r="H176" t="s"/>
-      <c r="I176" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G176" t="s"/>
+      <c r="H176" t="s">
+        <v>204</v>
+      </c>
+      <c r="I176" t="s"/>
+      <c r="J176" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10">
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C177" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D177" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E177" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F177" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G177" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H177" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I177" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J177" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10">
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C178" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D178" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E178" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F178" t="s">
-        <v>21</v>
-      </c>
-      <c r="G178" t="s">
-        <v>201</v>
-      </c>
-      <c r="H178" t="s"/>
-      <c r="I178" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G178" t="s"/>
+      <c r="H178" t="s">
+        <v>204</v>
+      </c>
+      <c r="I178" t="s"/>
+      <c r="J178" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10">
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C179" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D179" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E179" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F179" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G179" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H179" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I179" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J179" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10">
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C180" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D180" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E180" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F180" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G180" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H180" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I180" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J180" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10">
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C181" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D181" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E181" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F181" t="s">
-        <v>21</v>
-      </c>
-      <c r="G181" t="s">
-        <v>201</v>
-      </c>
-      <c r="H181" t="s"/>
-      <c r="I181" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G181" t="s"/>
+      <c r="H181" t="s">
+        <v>204</v>
+      </c>
+      <c r="I181" t="s"/>
+      <c r="J181" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10">
       <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C182" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D182" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E182" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F182" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G182" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H182" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I182" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J182" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10">
       <c r="A183" s="1" t="n">
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C183" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D183" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E183" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F183" t="s">
-        <v>21</v>
-      </c>
-      <c r="G183" t="s">
-        <v>204</v>
-      </c>
-      <c r="H183" t="s"/>
-      <c r="I183" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G183" t="s"/>
+      <c r="H183" t="s">
+        <v>207</v>
+      </c>
+      <c r="I183" t="s"/>
+      <c r="J183" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10">
       <c r="A184" s="1" t="n">
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C184" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D184" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E184" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F184" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G184" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H184" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I184" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J184" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10">
       <c r="A185" s="1" t="n">
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C185" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D185" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E185" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F185" t="s">
-        <v>21</v>
-      </c>
-      <c r="G185" t="s">
-        <v>204</v>
-      </c>
-      <c r="H185" t="s"/>
-      <c r="I185" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G185" t="s"/>
+      <c r="H185" t="s">
+        <v>207</v>
+      </c>
+      <c r="I185" t="s"/>
+      <c r="J185" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10">
       <c r="A186" s="1" t="n">
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C186" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D186" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E186" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F186" t="s">
-        <v>21</v>
-      </c>
-      <c r="G186" t="s">
-        <v>201</v>
-      </c>
-      <c r="H186" t="s"/>
-      <c r="I186" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G186" t="s"/>
+      <c r="H186" t="s">
+        <v>204</v>
+      </c>
+      <c r="I186" t="s"/>
+      <c r="J186" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10">
       <c r="A187" s="1" t="n">
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C187" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D187" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E187" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F187" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G187" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H187" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I187" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J187" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10">
       <c r="A188" s="1" t="n">
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C188" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D188" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E188" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F188" t="s">
-        <v>21</v>
-      </c>
-      <c r="G188" t="s">
-        <v>204</v>
-      </c>
-      <c r="H188" t="s"/>
-      <c r="I188" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G188" t="s"/>
+      <c r="H188" t="s">
+        <v>207</v>
+      </c>
+      <c r="I188" t="s"/>
+      <c r="J188" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10">
       <c r="A189" s="1" t="n">
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C189" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D189" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E189" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F189" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G189" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H189" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I189" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J189" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10">
       <c r="A190" s="1" t="n">
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C190" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D190" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E190" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F190" t="s">
-        <v>21</v>
-      </c>
-      <c r="G190" t="s">
-        <v>201</v>
-      </c>
-      <c r="H190" t="s"/>
-      <c r="I190" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G190" t="s"/>
+      <c r="H190" t="s">
+        <v>204</v>
+      </c>
+      <c r="I190" t="s"/>
+      <c r="J190" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10">
       <c r="A191" s="1" t="n">
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C191" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D191" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E191" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F191" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G191" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H191" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I191" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J191" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10">
       <c r="A192" s="1" t="n">
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C192" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D192" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E192" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F192" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G192" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H192" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I192" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J192" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10">
       <c r="A193" s="1" t="n">
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C193" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D193" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E193" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F193" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G193" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="H193" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I193" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="194" spans="1:9">
+        <v>59</v>
+      </c>
+      <c r="J193" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10">
       <c r="A194" s="1" t="n">
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C194" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D194" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E194" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F194" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G194" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H194" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I194" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="195" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J194" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10">
       <c r="A195" s="1" t="n">
         <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C195" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D195" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E195" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F195" t="s">
-        <v>21</v>
-      </c>
-      <c r="G195" t="s">
-        <v>204</v>
-      </c>
-      <c r="H195" t="s"/>
-      <c r="I195" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G195" t="s"/>
+      <c r="H195" t="s">
+        <v>207</v>
+      </c>
+      <c r="I195" t="s"/>
+      <c r="J195" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10">
       <c r="A196" s="1" t="n">
         <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C196" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D196" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E196" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F196" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G196" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H196" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I196" t="s">
-        <v>236</v>
+        <v>16</v>
+      </c>
+      <c r="J196" t="s">
+        <v>239</v>
       </c>
     </row>
   </sheetData>
